--- a/part2_df_manipulation/antiquities_act.xlsx
+++ b/part2_df_manipulation/antiquities_act.xlsx
@@ -1,914 +1,922 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\LocalProjects\GEO-REU-Peer-Mentors-2024\part2_df_manipulation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB4042-51B1-4F24-A9CC-A63C95B75743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="13620" yWindow="0" windowWidth="33975" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
-  <si>
-    <t xml:space="preserve">current_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">original_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pres_or_congress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acres_affected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acadia National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sieur de Monts National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Established</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. Wilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African Burial Ground National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G. W. Bush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agua Fria National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. Clinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aniakchak National Monument &amp; Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aniakchak National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Carter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arches National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arches National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H. Hoover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlarged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F. D. Roosevelt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Eisenhower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diminished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L. Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aztec Ruin National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. Harding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Coolidge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H. Truman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bandelier National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Kennedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basin and Range National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. H. Obama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bears Ears National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM, USFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Becharof National Wildlife Refuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belmont-Paul Women's Equality National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington, DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bering Land Bridge National Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bering Land Bridge National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berryessa Snow Mountain National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Hole National Battlefield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Hole Battlefield National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. Taft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birmingham Civil Rights National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alabama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Canyon of the Gunnison National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Canyon of the Gunnison National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Browns Canyon National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryce Canyon National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryce Canyon National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buck Island Reef National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgin Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G. Ford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabrillo National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California Coastal National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Established (BLM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canyon of the Ancients National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Krusenstern National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capitol Reef National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capitol Reef National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capulin Volcano National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capulin Mountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlsbad Caverns National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlsbad Cave National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrizo Plain National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casa Grande Ruins National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cascade-Siskiyou National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castillo de San Marcos National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Marion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castle Mountains National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castle Pinckney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State of South Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedar Breaks National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesar E. Chavez National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaco Culture National Historical Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaco Canyon National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T. Roosevelt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Islands National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Islands National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles Young Buffalo Soldiers Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ohio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chesapeake and Ohio Canal National Historical Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chesapeake and Ohio Canal National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chimney Rock National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiricahua National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craters of the Moon National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idaho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPS, BLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlarged under BLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crow Flies High Overlook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Dakota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verendrye National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State of North Dakota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death Valley National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California, Nevada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death Valley National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denali National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denali National Park and Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devils Postpile National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devils Tower National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyoming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinosaur National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah, Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry Tortugas National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Jefferson National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effigy Mounds National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Morro National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First State National Historical Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delaware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Laramie National Historic Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Laramie National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Matanzas National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Monroe National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Ord National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Pulaski National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fossil Cycad National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Dakota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom Riders National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gates of the Arctic National Park and Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gates of the Arctic National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gila Cliff Dwellings National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glacier Bay National Park and Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glacier Bay National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Butte National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Governors Island National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaffirmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Canyon National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Canyon National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Canyon "II"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marble Canyon National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Canyon-Parashant National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Staircase-Escalante National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Teton National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson Hole National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great Basin National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lehman Caves National Moument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great Sand Dunes National Park and Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great Sand Dunes National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulf Islands National Seashore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Rosa Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanford Reach National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harriet Tubman Underground Railroad National Historical Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPS, FWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Established (NPS and FWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partially redesignated NHP (NPS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113th Congress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honouliuli National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawaii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopewell Culture National Historical Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mound City Group National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hovenweep National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironwood Forest National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jewel Cave National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joshua Tree National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joshua Tree National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasha-Katuwe Tent Rocks National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katahdin Woods and Waters National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katmai National Park and Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katmai National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai Fjords National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai Fjords National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kobuk Valley National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kobuk Valley National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Clark National Park and Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Clark National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lassen Volcanic National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinder Cone National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lassen Volcanic National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lava Beds National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis and Clark Caverns State Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis and Clark Cavern National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State of Montana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundaries Confirmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minidoka National Historic Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minidoka Internment National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mojave Trails National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montezuma Castle National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95th Congress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deleted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muir Woods National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natchez Trace National Scenic Trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tennessee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meriwether Lewis National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Bridges National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navajo National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noatak National Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noatak National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympic National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mount Olympus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon Caves National Monument and Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon Caves National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organ Mountains-Desert Peaks National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organ Pipe Cactus National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papago Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papago Saguaro National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State of Arizona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part of Old Fort Niagara State Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father Millet Cross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State of New York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part of Rio Grande National Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheeler National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part of Sequoia National Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant Sequoia National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part of Tongass National Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Kasaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admiralty Island National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misty Fjords National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part of White River National Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Cross National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrified Forest National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrified Forest National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinnacles National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinnacles National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redesignated NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112th Congress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pipe Spring National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pompeys Pillar National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President Lincoln and Soldier's Home National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pullman National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rainbow Bridge National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconstruction Era National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio Grande del Norte National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russell Cave National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saguaro National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saguaro National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salinas Pueblo Missions National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gran Quivira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Gabriel Mountains National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Juan Islands National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sand to Snow National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotts Bluff National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebraska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sitka National Historical Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sitka National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resurveyed &amp; Enlarged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonoran Desert National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit Mountain Cave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoshone Cavern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statue of Liberty National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlarged, redesignated Statue of Liberty NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stonewall National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunset Crater Volcano National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunset Crater National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Edison National Historical Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Jersey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edison Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timpanogos Cave National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonto National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tumacacori National Historical Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tumacacori National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuzigoot National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Missouri River Breaks National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vermillion Cliffs National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgin Islands Coral Reef National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waco Mammoth National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walnut Canyon National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White Sands National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrangall-St. Elias National Park and Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrangall-St. Elias National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wupatki National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucca House National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yukon Flats National Wildlife Refuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yukon Flats National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yukon-Charley Rivers National Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yukon-Charley Rivers National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zion National Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mukuntu-Weap/Zion National Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlarged &amp; Renamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zion "II"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="299">
+  <si>
+    <t>current_name</t>
+  </si>
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>original_name</t>
+  </si>
+  <si>
+    <t>current_agency</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>pres_or_congress</t>
+  </si>
+  <si>
+    <t>acres_affected</t>
+  </si>
+  <si>
+    <t>Acadia National Park</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Sieur de Monts National Monument</t>
+  </si>
+  <si>
+    <t>NPS</t>
+  </si>
+  <si>
+    <t>Established</t>
+  </si>
+  <si>
+    <t>W. Wilson</t>
+  </si>
+  <si>
+    <t>African Burial Ground National Monument</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>G. W. Bush</t>
+  </si>
+  <si>
+    <t>Agua Fria National Monument</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>W. Clinton</t>
+  </si>
+  <si>
+    <t>Aniakchak National Monument &amp; Preserve</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Aniakchak National Monument</t>
+  </si>
+  <si>
+    <t>J. Carter</t>
+  </si>
+  <si>
+    <t>Arches National Park</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Arches National Monument</t>
+  </si>
+  <si>
+    <t>H. Hoover</t>
+  </si>
+  <si>
+    <t>Enlarged</t>
+  </si>
+  <si>
+    <t>F. D. Roosevelt</t>
+  </si>
+  <si>
+    <t>D. Eisenhower</t>
+  </si>
+  <si>
+    <t>Diminished</t>
+  </si>
+  <si>
+    <t>L. Johnson</t>
+  </si>
+  <si>
+    <t>Aztec Ruin National Monument</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>W. Harding</t>
+  </si>
+  <si>
+    <t>C. Coolidge</t>
+  </si>
+  <si>
+    <t>H. Truman</t>
+  </si>
+  <si>
+    <t>Bandelier National Monument</t>
+  </si>
+  <si>
+    <t>J. Kennedy</t>
+  </si>
+  <si>
+    <t>Basin and Range National Monument</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>B. H. Obama</t>
+  </si>
+  <si>
+    <t>Bears Ears National Monument</t>
+  </si>
+  <si>
+    <t>BLM, USFS</t>
+  </si>
+  <si>
+    <t>Becharof National Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>FWS</t>
+  </si>
+  <si>
+    <t>Belmont-Paul Women's Equality National Monument</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>Bering Land Bridge National Preserve</t>
+  </si>
+  <si>
+    <t>Bering Land Bridge National Monument</t>
+  </si>
+  <si>
+    <t>Berryessa Snow Mountain National Monument</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>USFS</t>
+  </si>
+  <si>
+    <t>Big Hole National Battlefield</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Big Hole Battlefield National Monument</t>
+  </si>
+  <si>
+    <t>W. Taft</t>
+  </si>
+  <si>
+    <t>Birmingham Civil Rights National Monument</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Black Canyon of the Gunnison National Park</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Black Canyon of the Gunnison National Monument</t>
+  </si>
+  <si>
+    <t>Browns Canyon National Monument</t>
+  </si>
+  <si>
+    <t>Bryce Canyon National Park</t>
+  </si>
+  <si>
+    <t>Bryce Canyon National Monument</t>
+  </si>
+  <si>
+    <t>Buck Island Reef National Monument</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>G. Ford</t>
+  </si>
+  <si>
+    <t>Cabrillo National Monument</t>
+  </si>
+  <si>
+    <t>California Coastal National Monument</t>
+  </si>
+  <si>
+    <t>Established (BLM)</t>
+  </si>
+  <si>
+    <t>Canyon of the Ancients National Monument</t>
+  </si>
+  <si>
+    <t>Cape Krusenstern National Monument</t>
+  </si>
+  <si>
+    <t>Capitol Reef National Park</t>
+  </si>
+  <si>
+    <t>Capitol Reef National Monument</t>
+  </si>
+  <si>
+    <t>Capulin Volcano National Monument</t>
+  </si>
+  <si>
+    <t>Capulin Mountain</t>
+  </si>
+  <si>
+    <t>Carlsbad Caverns National Park</t>
+  </si>
+  <si>
+    <t>Carlsbad Cave National Monument</t>
+  </si>
+  <si>
+    <t>Carrizo Plain National Monument</t>
+  </si>
+  <si>
+    <t>Casa Grande Ruins National Monument</t>
+  </si>
+  <si>
+    <t>Cascade-Siskiyou National Monument</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Castillo de San Marcos National Monument</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Fort Marion</t>
+  </si>
+  <si>
+    <t>Castle Mountains National Monument</t>
+  </si>
+  <si>
+    <t>Castle Pinckney</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>State of South Carolina</t>
+  </si>
+  <si>
+    <t>Cedar Breaks National Monument</t>
+  </si>
+  <si>
+    <t>Cesar E. Chavez National Monument</t>
+  </si>
+  <si>
+    <t>Chaco Culture National Historical Park</t>
+  </si>
+  <si>
+    <t>Chaco Canyon National Monument</t>
+  </si>
+  <si>
+    <t>T. Roosevelt</t>
+  </si>
+  <si>
+    <t>Channel Islands National Park</t>
+  </si>
+  <si>
+    <t>Channel Islands National Monument</t>
+  </si>
+  <si>
+    <t>Charles Young Buffalo Soldiers Monument</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Chesapeake and Ohio Canal National Historical Park</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Chesapeake and Ohio Canal National Monument</t>
+  </si>
+  <si>
+    <t>Chimney Rock National Monument</t>
+  </si>
+  <si>
+    <t>Chiricahua National Monument</t>
+  </si>
+  <si>
+    <t>Colorado National Monument</t>
+  </si>
+  <si>
+    <t>Craters of the Moon National Monument</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>NPS, BLM</t>
+  </si>
+  <si>
+    <t>Enlarged under BLM</t>
+  </si>
+  <si>
+    <t>Crow Flies High Overlook</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Verendrye National Monument</t>
+  </si>
+  <si>
+    <t>State of North Dakota</t>
+  </si>
+  <si>
+    <t>Death Valley National Park</t>
+  </si>
+  <si>
+    <t>California, Nevada</t>
+  </si>
+  <si>
+    <t>Death Valley National Monument</t>
+  </si>
+  <si>
+    <t>Denali National Park</t>
+  </si>
+  <si>
+    <t>Denali National Park and Preserve</t>
+  </si>
+  <si>
+    <t>Devils Postpile National Monument</t>
+  </si>
+  <si>
+    <t>Devils Tower National Monument</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Dinosaur National Monument</t>
+  </si>
+  <si>
+    <t>Utah, Colorado</t>
+  </si>
+  <si>
+    <t>Dry Tortugas National Park</t>
+  </si>
+  <si>
+    <t>Fort Jefferson National Monument</t>
+  </si>
+  <si>
+    <t>Effigy Mounds National Monument</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>El Morro National Monument</t>
+  </si>
+  <si>
+    <t>First State National Historical Park</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Fort Laramie National Historic Site</t>
+  </si>
+  <si>
+    <t>Fort Laramie National Monument</t>
+  </si>
+  <si>
+    <t>Fort Matanzas National Monument</t>
+  </si>
+  <si>
+    <t>Fort Monroe National Monument</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Fort Ord National Monument</t>
+  </si>
+  <si>
+    <t>Fort Pulaski National Monument</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Fossil Cycad National Monument</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Freedom Riders National Monument</t>
+  </si>
+  <si>
+    <t>Gates of the Arctic National Park and Preserve</t>
+  </si>
+  <si>
+    <t>Gates of the Arctic National Monument</t>
+  </si>
+  <si>
+    <t>Gila Cliff Dwellings National Monument</t>
+  </si>
+  <si>
+    <t>Glacier Bay National Park and Preserve</t>
+  </si>
+  <si>
+    <t>Glacier Bay National Monument</t>
+  </si>
+  <si>
+    <t>Gold Butte National Monument</t>
+  </si>
+  <si>
+    <t>Governors Island National Monument</t>
+  </si>
+  <si>
+    <t>Reaffirmed</t>
+  </si>
+  <si>
+    <t>Grand Canyon National Park</t>
+  </si>
+  <si>
+    <t>Grand Canyon National Monument</t>
+  </si>
+  <si>
+    <t>Grand Canyon "II"</t>
+  </si>
+  <si>
+    <t>Marble Canyon National Monument</t>
+  </si>
+  <si>
+    <t>Grand Canyon-Parashant National Monument</t>
+  </si>
+  <si>
+    <t>Grand Staircase-Escalante National Monument</t>
+  </si>
+  <si>
+    <t>Grand Teton National Park</t>
+  </si>
+  <si>
+    <t>Jackson Hole National Monument</t>
+  </si>
+  <si>
+    <t>Great Basin National Park</t>
+  </si>
+  <si>
+    <t>Lehman Caves National Moument</t>
+  </si>
+  <si>
+    <t>Great Sand Dunes National Park and Preserve</t>
+  </si>
+  <si>
+    <t>Great Sand Dunes National Monument</t>
+  </si>
+  <si>
+    <t>Gulf Islands National Seashore</t>
+  </si>
+  <si>
+    <t>Santa Rosa Island</t>
+  </si>
+  <si>
+    <t>Hanford Reach National Monument</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Harriet Tubman Underground Railroad National Historical Park</t>
+  </si>
+  <si>
+    <t>NPS, FWS</t>
+  </si>
+  <si>
+    <t>Established (NPS and FWS)</t>
+  </si>
+  <si>
+    <t>Partially redesignated NHP (NPS)</t>
+  </si>
+  <si>
+    <t>113th Congress</t>
+  </si>
+  <si>
+    <t>Honouliuli National Monument</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Hopewell Culture National Historical Park</t>
+  </si>
+  <si>
+    <t>Mound City Group National Monument</t>
+  </si>
+  <si>
+    <t>Hovenweep National Monument</t>
+  </si>
+  <si>
+    <t>Ironwood Forest National Monument</t>
+  </si>
+  <si>
+    <t>Jewel Cave National Monument</t>
+  </si>
+  <si>
+    <t>Joshua Tree National Park</t>
+  </si>
+  <si>
+    <t>Joshua Tree National Monument</t>
+  </si>
+  <si>
+    <t>Kasha-Katuwe Tent Rocks National Monument</t>
+  </si>
+  <si>
+    <t>Katahdin Woods and Waters National Monument</t>
+  </si>
+  <si>
+    <t>Katmai National Park and Preserve</t>
+  </si>
+  <si>
+    <t>Katmai National Monument</t>
+  </si>
+  <si>
+    <t>Kenai Fjords National Park</t>
+  </si>
+  <si>
+    <t>Kenai Fjords National Monument</t>
+  </si>
+  <si>
+    <t>Kobuk Valley National Park</t>
+  </si>
+  <si>
+    <t>Kobuk Valley National Monument</t>
+  </si>
+  <si>
+    <t>Lake Clark National Park and Preserve</t>
+  </si>
+  <si>
+    <t>Lake Clark National Monument</t>
+  </si>
+  <si>
+    <t>Lassen Volcanic National Park</t>
+  </si>
+  <si>
+    <t>Cinder Cone National Monument</t>
+  </si>
+  <si>
+    <t>Lassen Volcanic National Monument</t>
+  </si>
+  <si>
+    <t>Lava Beds National Monument</t>
+  </si>
+  <si>
+    <t>Lewis and Clark Caverns State Park</t>
+  </si>
+  <si>
+    <t>Lewis and Clark Cavern National Monument</t>
+  </si>
+  <si>
+    <t>State of Montana</t>
+  </si>
+  <si>
+    <t>Boundaries Confirmed</t>
+  </si>
+  <si>
+    <t>Minidoka National Historic Site</t>
+  </si>
+  <si>
+    <t>Minidoka Internment National Monument</t>
+  </si>
+  <si>
+    <t>Mojave Trails National Monument</t>
+  </si>
+  <si>
+    <t>Montezuma Castle National Monument</t>
+  </si>
+  <si>
+    <t>95th Congress</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Muir Woods National Monument</t>
+  </si>
+  <si>
+    <t>Natchez Trace National Scenic Trail</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Meriwether Lewis National Monument</t>
+  </si>
+  <si>
+    <t>Natural Bridges National Monument</t>
+  </si>
+  <si>
+    <t>Navajo National Monument</t>
+  </si>
+  <si>
+    <t>Noatak National Preserve</t>
+  </si>
+  <si>
+    <t>Noatak National Monument</t>
+  </si>
+  <si>
+    <t>Olympic National Park</t>
+  </si>
+  <si>
+    <t>Mount Olympus</t>
+  </si>
+  <si>
+    <t>Oregon Caves National Monument and Preserve</t>
+  </si>
+  <si>
+    <t>Oregon Caves National Monument</t>
+  </si>
+  <si>
+    <t>Organ Mountains-Desert Peaks National Monument</t>
+  </si>
+  <si>
+    <t>Organ Pipe Cactus National Monument</t>
+  </si>
+  <si>
+    <t>Papago Park</t>
+  </si>
+  <si>
+    <t>Papago Saguaro National Monument</t>
+  </si>
+  <si>
+    <t>State of Arizona</t>
+  </si>
+  <si>
+    <t>Part of Old Fort Niagara State Park</t>
+  </si>
+  <si>
+    <t>Father Millet Cross</t>
+  </si>
+  <si>
+    <t>State of New York</t>
+  </si>
+  <si>
+    <t>Part of Rio Grande National Forest</t>
+  </si>
+  <si>
+    <t>Wheeler National Monument</t>
+  </si>
+  <si>
+    <t>Part of Sequoia National Forest</t>
+  </si>
+  <si>
+    <t>Giant Sequoia National Monument</t>
+  </si>
+  <si>
+    <t>Part of Tongass National Forest</t>
+  </si>
+  <si>
+    <t>Old Kasaan</t>
+  </si>
+  <si>
+    <t>Admiralty Island National Monument</t>
+  </si>
+  <si>
+    <t>Misty Fjords National Monument</t>
+  </si>
+  <si>
+    <t>Part of White River National Forest</t>
+  </si>
+  <si>
+    <t>Holy Cross National Monument</t>
+  </si>
+  <si>
+    <t>Petrified Forest National Park</t>
+  </si>
+  <si>
+    <t>Petrified Forest National Monument</t>
+  </si>
+  <si>
+    <t>Pinnacles National Park</t>
+  </si>
+  <si>
+    <t>Pinnacles National Monument</t>
+  </si>
+  <si>
+    <t>Redesignated NP</t>
+  </si>
+  <si>
+    <t>112th Congress</t>
+  </si>
+  <si>
+    <t>Pipe Spring National Monument</t>
+  </si>
+  <si>
+    <t>Pompeys Pillar National Monument</t>
+  </si>
+  <si>
+    <t>President Lincoln and Soldier's Home National Monument</t>
+  </si>
+  <si>
+    <t>Pullman National Monument</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Rainbow Bridge National Monument</t>
+  </si>
+  <si>
+    <t>Reconstruction Era National Monument</t>
+  </si>
+  <si>
+    <t>Rio Grande del Norte National Monument</t>
+  </si>
+  <si>
+    <t>Russell Cave National Monument</t>
+  </si>
+  <si>
+    <t>Saguaro National Park</t>
+  </si>
+  <si>
+    <t>Saguaro National Monument</t>
+  </si>
+  <si>
+    <t>Salinas Pueblo Missions National Monument</t>
+  </si>
+  <si>
+    <t>Gran Quivira</t>
+  </si>
+  <si>
+    <t>San Gabriel Mountains National Monument</t>
+  </si>
+  <si>
+    <t>San Juan Islands National Monument</t>
+  </si>
+  <si>
+    <t>Sand to Snow National Monument</t>
+  </si>
+  <si>
+    <t>Scotts Bluff National Monument</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Sitka National Historical Park</t>
+  </si>
+  <si>
+    <t>Sitka National Monument</t>
+  </si>
+  <si>
+    <t>Resurveyed &amp; Enlarged</t>
+  </si>
+  <si>
+    <t>Sonoran Desert National Monument</t>
+  </si>
+  <si>
+    <t>Spirit Mountain Cave</t>
+  </si>
+  <si>
+    <t>Shoshone Cavern</t>
+  </si>
+  <si>
+    <t>Statue of Liberty National Monument</t>
+  </si>
+  <si>
+    <t>Fort Wood</t>
+  </si>
+  <si>
+    <t>Enlarged, redesignated Statue of Liberty NM</t>
+  </si>
+  <si>
+    <t>Stonewall National Monument</t>
+  </si>
+  <si>
+    <t>Sunset Crater Volcano National Monument</t>
+  </si>
+  <si>
+    <t>Sunset Crater National Monument</t>
+  </si>
+  <si>
+    <t>Thomas Edison National Historical Park</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Edison Laboratory</t>
+  </si>
+  <si>
+    <t>Timpanogos Cave National Monument</t>
+  </si>
+  <si>
+    <t>Tonto National Monument</t>
+  </si>
+  <si>
+    <t>Tumacacori National Historical Park</t>
+  </si>
+  <si>
+    <t>Tumacacori National Monument</t>
+  </si>
+  <si>
+    <t>Tuzigoot National Monument</t>
+  </si>
+  <si>
+    <t>Upper Missouri River Breaks National Monument</t>
+  </si>
+  <si>
+    <t>Vermillion Cliffs National Monument</t>
+  </si>
+  <si>
+    <t>Virgin Islands Coral Reef National Monument</t>
+  </si>
+  <si>
+    <t>Waco Mammoth National Monument</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Walnut Canyon National Monument</t>
+  </si>
+  <si>
+    <t>White Sands National Monument</t>
+  </si>
+  <si>
+    <t>Wrangall-St. Elias National Park and Preserve</t>
+  </si>
+  <si>
+    <t>Wrangall-St. Elias National Monument</t>
+  </si>
+  <si>
+    <t>Wupatki National Monument</t>
+  </si>
+  <si>
+    <t>Yucca House National Monument</t>
+  </si>
+  <si>
+    <t>Yukon Flats National Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>Yukon Flats National Monument</t>
+  </si>
+  <si>
+    <t>Yukon-Charley Rivers National Preserve</t>
+  </si>
+  <si>
+    <t>Yukon-Charley Rivers National Monument</t>
+  </si>
+  <si>
+    <t>Zion National Park</t>
+  </si>
+  <si>
+    <t>Mukuntu-Weap/Zion National Monument</t>
+  </si>
+  <si>
+    <t>Enlarged &amp; Renamed</t>
+  </si>
+  <si>
+    <t>Zion "II"</t>
   </si>
 </sst>
 </file>
@@ -916,9 +924,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -930,6 +938,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -952,14 +968,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1241,43 +1267,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1293,74 +1332,72 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>6034</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1916</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>5000</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>38775</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2006</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.34</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>36536</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2000</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>71100</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1376,20 +1413,20 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>28825</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1978</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>350000</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1405,20 +1442,20 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>10695</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1929</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>4520</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1434,20 +1471,20 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>14209</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1938</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>29160</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1463,20 +1500,20 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>22119</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1960</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>480</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1492,20 +1529,20 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>22119</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1960</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>720</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1521,317 +1558,306 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>25223</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1969</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>48943</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>8425</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1923</v>
       </c>
       <c r="H11" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="I11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>10411</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1928</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>12.6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>11311</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1930</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>6.88</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>17680</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1948</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>1.25</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>5886</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1916</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>23352</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1">
         <v>22290</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1961</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>3600</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17"/>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="1">
         <v>23158</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1963</v>
       </c>
       <c r="H17" t="s">
         <v>41</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>2882</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>42195</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>2015</v>
       </c>
       <c r="H18" t="s">
         <v>44</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>704000</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19"/>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1">
         <v>42732</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>2016</v>
       </c>
       <c r="H19" t="s">
         <v>44</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>1350000</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20"/>
       <c r="D20" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>28825</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1978</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>1200000</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1">
         <v>42472</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>2016</v>
       </c>
       <c r="H21" t="s">
         <v>44</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.34</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1847,47 +1873,46 @@
       <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="1">
         <v>28825</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1978</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>2590000</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23"/>
       <c r="D23" t="s">
         <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1">
         <v>42195</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>2015</v>
       </c>
       <c r="H23" t="s">
         <v>44</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>330780</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1903,20 +1928,20 @@
       <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="1">
         <v>3827</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>1910</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1932,47 +1957,46 @@
       <c r="E25" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="1">
         <v>14425</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>1939</v>
       </c>
       <c r="H25" t="s">
         <v>31</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>195</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="1">
         <v>42747</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2017</v>
       </c>
       <c r="H26" t="s">
         <v>44</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.88</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1988,20 +2012,20 @@
       <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="1">
         <v>12115</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>1933</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
       </c>
-      <c r="I27" t="n">
-        <v>10287.95</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="I27">
+        <v>10287.950000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2017,20 +2041,20 @@
       <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>14016</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>1938</v>
       </c>
       <c r="H28" t="s">
         <v>31</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>100</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2046,20 +2070,20 @@
       <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="1">
         <v>14546</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>1939</v>
       </c>
       <c r="H29" t="s">
         <v>31</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>2760</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2075,47 +2099,46 @@
       <c r="E30" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="1">
         <v>22014</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1960</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>470</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C31"/>
       <c r="D31" t="s">
         <v>46</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="1">
         <v>42054</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>2015</v>
       </c>
       <c r="H31" t="s">
         <v>44</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>21586</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -2131,317 +2154,306 @@
       <c r="E32" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="1">
         <v>8560</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1923</v>
       </c>
       <c r="H32" t="s">
         <v>37</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>7440</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="C33"/>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="1">
         <v>22643</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>1961</v>
       </c>
       <c r="H33" t="s">
         <v>41</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>850</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34"/>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="1">
         <v>27426</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1975</v>
       </c>
       <c r="H34" t="s">
         <v>70</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>30</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35"/>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="1">
         <v>36908</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>2001</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>17255</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
-      <c r="C36"/>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="1">
         <v>5036</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>1913</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
       <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37"/>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="1">
         <v>21583</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>1959</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>80</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38"/>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="1">
         <v>27300</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>1974</v>
       </c>
       <c r="H38" t="s">
         <v>70</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>56.6</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39"/>
       <c r="D39" t="s">
         <v>20</v>
       </c>
       <c r="E39" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39" s="1">
         <v>36536</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>2000</v>
       </c>
       <c r="H39" t="s">
         <v>21</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>883</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
       </c>
-      <c r="C40"/>
       <c r="D40" t="s">
         <v>20</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F40" s="1">
         <v>41709</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>2014</v>
       </c>
       <c r="H40" t="s">
         <v>44</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>1665</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
       <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="C41"/>
       <c r="D41" t="s">
         <v>20</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="1">
         <v>42747</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>2017</v>
       </c>
       <c r="H41" t="s">
         <v>44</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>6230</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
       <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C42"/>
       <c r="D42" t="s">
         <v>20</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F42" s="1">
         <v>36686</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>2000</v>
       </c>
       <c r="H42" t="s">
         <v>21</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>164000</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="C43"/>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F43" s="1">
         <v>28825</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>1978</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>560000</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -2457,20 +2469,20 @@
       <c r="E44" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F44" s="1">
         <v>13729</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>1937</v>
       </c>
       <c r="H44" t="s">
         <v>31</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>37060</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2486,20 +2498,20 @@
       <c r="E45" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="1">
         <v>21368</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>1958</v>
       </c>
       <c r="H45" t="s">
         <v>32</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>3040</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -2515,20 +2527,20 @@
       <c r="E46" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="1">
         <v>25223</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>1969</v>
       </c>
       <c r="H46" t="s">
         <v>34</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>215056</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -2544,20 +2556,20 @@
       <c r="E47" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="1">
         <v>6066</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1916</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
       </c>
-      <c r="I47" t="n">
-        <v>640.42</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="I47">
+        <v>640.41999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2573,128 +2585,124 @@
       <c r="E48" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F48" s="1">
         <v>8699</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>1923</v>
       </c>
       <c r="H48" t="s">
         <v>38</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>719.22</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
-      <c r="C49"/>
       <c r="D49" t="s">
         <v>20</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F49" s="1">
         <v>36908</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>2001</v>
       </c>
       <c r="H49" t="s">
         <v>21</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>204107</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
-      <c r="C50"/>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50" s="1">
         <v>6790</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>1918</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>480</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
       <c r="B51" t="s">
         <v>85</v>
       </c>
-      <c r="C51"/>
       <c r="D51" t="s">
         <v>20</v>
       </c>
       <c r="E51" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="1" t="n">
+      <c r="F51" s="1">
         <v>36686</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>2000</v>
       </c>
       <c r="H51" t="s">
         <v>21</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>52000</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
       <c r="B52" t="s">
         <v>85</v>
       </c>
-      <c r="C52"/>
       <c r="D52" t="s">
         <v>20</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="1" t="n">
+      <c r="F52" s="1">
         <v>42747</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>2017</v>
       </c>
       <c r="H52" t="s">
         <v>44</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>48000</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -2710,128 +2718,124 @@
       <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="1" t="n">
+      <c r="F53" s="1">
         <v>9055</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>1924</v>
       </c>
       <c r="H53" t="s">
         <v>38</v>
       </c>
-      <c r="I53" t="n">
-        <v>18.51</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="I53">
+        <v>18.510000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>89</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C54"/>
       <c r="D54" t="s">
         <v>12</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="F54" s="1">
         <v>42412</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>2016</v>
       </c>
       <c r="H54" t="s">
         <v>44</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>20920</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>90</v>
       </c>
       <c r="B55" t="s">
         <v>91</v>
       </c>
-      <c r="C55"/>
       <c r="D55" t="s">
         <v>92</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="1" t="n">
+      <c r="F55" s="1">
         <v>9055</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>1924</v>
       </c>
       <c r="H55" t="s">
         <v>38</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>3.5</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
       </c>
-      <c r="C56"/>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="1" t="n">
+      <c r="F56" s="1">
         <v>12288</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>1933</v>
       </c>
       <c r="H56" t="s">
         <v>31</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>5701.39</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
       <c r="B57" t="s">
         <v>54</v>
       </c>
-      <c r="C57"/>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="1" t="n">
+      <c r="F57" s="1">
         <v>41190</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>2012</v>
       </c>
       <c r="H57" t="s">
         <v>44</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>10.5</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -2847,20 +2851,20 @@
       <c r="E58" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="1" t="n">
+      <c r="F58" s="1">
         <v>2627</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>1907</v>
       </c>
       <c r="H58" t="s">
         <v>97</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>10643.13</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -2876,20 +2880,20 @@
       <c r="E59" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="1" t="n">
+      <c r="F59" s="1">
         <v>10237</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>1928</v>
       </c>
       <c r="H59" t="s">
         <v>38</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>21509.4</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -2905,20 +2909,20 @@
       <c r="E60" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="1" t="n">
+      <c r="F60" s="1">
         <v>13996</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>1938</v>
       </c>
       <c r="H60" t="s">
         <v>31</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>1119.98</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -2934,47 +2938,46 @@
       <c r="E61" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="1" t="n">
+      <c r="F61" s="1">
         <v>17938</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>1949</v>
       </c>
       <c r="H61" t="s">
         <v>39</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>25918.02</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>100</v>
       </c>
       <c r="B62" t="s">
         <v>101</v>
       </c>
-      <c r="C62"/>
       <c r="D62" t="s">
         <v>12</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="1" t="n">
+      <c r="F62" s="1">
         <v>41358</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>2013</v>
       </c>
       <c r="H62" t="s">
         <v>44</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>59.65</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -2990,263 +2993,254 @@
       <c r="E63" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="1" t="n">
+      <c r="F63" s="1">
         <v>22299</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>1961</v>
       </c>
       <c r="H63" t="s">
         <v>32</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>5263.94</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>105</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-      <c r="C64"/>
       <c r="D64" t="s">
         <v>55</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="1" t="n">
+      <c r="F64" s="1">
         <v>41173</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>2012</v>
       </c>
       <c r="H64" t="s">
         <v>44</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>4726</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>106</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
-      <c r="C65"/>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="1" t="n">
+      <c r="F65" s="1">
         <v>8875</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>1924</v>
       </c>
       <c r="H65" t="s">
         <v>38</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>3655.12</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>106</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
       </c>
-      <c r="C66"/>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="1" t="n">
+      <c r="F66" s="1">
         <v>14041</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>1938</v>
       </c>
       <c r="H66" t="s">
         <v>31</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>6407</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>107</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
       </c>
-      <c r="C67"/>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="1" t="n">
+      <c r="F67" s="1">
         <v>4162</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>1911</v>
       </c>
       <c r="H67" t="s">
         <v>59</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>13883.06</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
       <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="C68"/>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
         <v>33</v>
       </c>
-      <c r="F68" s="1" t="n">
+      <c r="F68" s="1">
         <v>21769</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>1959</v>
       </c>
       <c r="H68" t="s">
         <v>32</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>211</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>108</v>
       </c>
       <c r="B69" t="s">
         <v>109</v>
       </c>
-      <c r="C69"/>
       <c r="D69" t="s">
         <v>110</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="1" t="n">
+      <c r="F69" s="1">
         <v>8889</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>1924</v>
       </c>
       <c r="H69" t="s">
         <v>38</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>22651.8</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>108</v>
       </c>
       <c r="B70" t="s">
         <v>109</v>
       </c>
-      <c r="C70"/>
       <c r="D70" t="s">
         <v>110</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="1" t="n">
+      <c r="F70" s="1">
         <v>10432</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>1928</v>
       </c>
       <c r="H70" t="s">
         <v>38</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>26240</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>108</v>
       </c>
       <c r="B71" t="s">
         <v>109</v>
       </c>
-      <c r="C71"/>
       <c r="D71" t="s">
         <v>110</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="1" t="n">
+      <c r="F71" s="1">
         <v>22969</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>1962</v>
       </c>
       <c r="H71" t="s">
         <v>41</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>5360</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>108</v>
       </c>
       <c r="B72" t="s">
         <v>109</v>
       </c>
-      <c r="C72"/>
       <c r="D72" t="s">
         <v>110</v>
       </c>
       <c r="E72" t="s">
         <v>111</v>
       </c>
-      <c r="F72" s="1" t="n">
+      <c r="F72" s="1">
         <v>36839</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>2000</v>
       </c>
       <c r="H72" t="s">
         <v>21</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>661287</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -3262,20 +3256,20 @@
       <c r="E73" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="1" t="n">
+      <c r="F73" s="1">
         <v>6390</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>1917</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>253.04</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -3291,20 +3285,20 @@
       <c r="E74" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="1" t="n">
+      <c r="F74" s="1">
         <v>12096</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>1933</v>
       </c>
       <c r="H74" t="s">
         <v>29</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>848581.36</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -3320,20 +3314,20 @@
       <c r="E75" t="s">
         <v>30</v>
       </c>
-      <c r="F75" s="1" t="n">
+      <c r="F75" s="1">
         <v>13600</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>1937</v>
       </c>
       <c r="H75" t="s">
         <v>31</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>305920</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -3349,20 +3343,20 @@
       <c r="E76" t="s">
         <v>30</v>
       </c>
-      <c r="F76" s="1" t="n">
+      <c r="F76" s="1">
         <v>19010</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>1952</v>
       </c>
       <c r="H76" t="s">
         <v>39</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>40</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -3378,128 +3372,124 @@
       <c r="E77" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="1" t="n">
+      <c r="F77" s="1">
         <v>28825</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>1978</v>
       </c>
       <c r="H77" t="s">
         <v>25</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>3890000</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>121</v>
       </c>
       <c r="B78" t="s">
         <v>54</v>
       </c>
-      <c r="C78"/>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="1" t="n">
+      <c r="F78" s="1">
         <v>4205</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>1911</v>
       </c>
       <c r="H78" t="s">
         <v>59</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>798.46</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>122</v>
       </c>
       <c r="B79" t="s">
         <v>123</v>
       </c>
-      <c r="C79"/>
       <c r="D79" t="s">
         <v>12</v>
       </c>
       <c r="E79" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="1" t="n">
+      <c r="F79" s="1">
         <v>2459</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>1906</v>
       </c>
       <c r="H79" t="s">
         <v>97</v>
       </c>
-      <c r="I79" t="n">
-        <v>1193.91</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="I79">
+        <v>1193.9100000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>124</v>
       </c>
       <c r="B80" t="s">
         <v>125</v>
       </c>
-      <c r="C80"/>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="1" t="n">
+      <c r="F80" s="1">
         <v>5756</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>1915</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>80</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>124</v>
       </c>
       <c r="B81" t="s">
         <v>125</v>
       </c>
-      <c r="C81"/>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="1" t="n">
+      <c r="F81" s="1">
         <v>14075</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>1938</v>
       </c>
       <c r="H81" t="s">
         <v>31</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>203885</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>126</v>
       </c>
@@ -3515,128 +3505,124 @@
       <c r="E82" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="1" t="n">
+      <c r="F82" s="1">
         <v>12788</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>1935</v>
       </c>
       <c r="H82" t="s">
         <v>31</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>47125</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>128</v>
       </c>
       <c r="B83" t="s">
         <v>129</v>
       </c>
-      <c r="C83"/>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="1" t="n">
+      <c r="F83" s="1">
         <v>18196</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>1949</v>
       </c>
       <c r="H83" t="s">
         <v>39</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>1000</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>130</v>
       </c>
       <c r="B84" t="s">
         <v>36</v>
       </c>
-      <c r="C84"/>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="1" t="n">
+      <c r="F84" s="1">
         <v>2534</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>1906</v>
       </c>
       <c r="H84" t="s">
         <v>97</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>160</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>130</v>
       </c>
       <c r="B85" t="s">
         <v>36</v>
       </c>
-      <c r="C85"/>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="1" t="n">
+      <c r="F85" s="1">
         <v>6379</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>1917</v>
       </c>
       <c r="H85" t="s">
         <v>14</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>240</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>131</v>
       </c>
       <c r="B86" t="s">
         <v>132</v>
       </c>
-      <c r="C86"/>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="1" t="n">
+      <c r="F86" s="1">
         <v>41358</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>2013</v>
       </c>
       <c r="H86" t="s">
         <v>44</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>1108</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>133</v>
       </c>
@@ -3652,263 +3638,254 @@
       <c r="E87" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="1" t="n">
+      <c r="F87" s="1">
         <v>14077</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>1938</v>
       </c>
       <c r="H87" t="s">
         <v>31</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>214.41</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>135</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
-      <c r="C88"/>
       <c r="D88" t="s">
         <v>12</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="1" t="n">
+      <c r="F88" s="1">
         <v>9055</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>1924</v>
       </c>
       <c r="H88" t="s">
         <v>38</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>1</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>135</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
       </c>
-      <c r="C89"/>
       <c r="D89" t="s">
         <v>12</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
-      <c r="F89" s="1" t="n">
+      <c r="F89" s="1">
         <v>12793</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>1935</v>
       </c>
       <c r="H89" t="s">
         <v>31</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>135</v>
       </c>
       <c r="B90" t="s">
         <v>87</v>
       </c>
-      <c r="C90"/>
       <c r="D90" t="s">
         <v>12</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
-      <c r="F90" s="1" t="n">
+      <c r="F90" s="1">
         <v>17616</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>1948</v>
       </c>
       <c r="H90" t="s">
         <v>39</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>209.42</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>136</v>
       </c>
       <c r="B91" t="s">
         <v>137</v>
       </c>
-      <c r="C91"/>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="1" t="n">
+      <c r="F91" s="1">
         <v>40848</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>2011</v>
       </c>
       <c r="H91" t="s">
         <v>44</v>
       </c>
-      <c r="I91" t="n">
-        <v>325.21</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="I91">
+        <v>325.20999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>138</v>
       </c>
       <c r="B92" t="s">
         <v>54</v>
       </c>
-      <c r="C92"/>
       <c r="D92" t="s">
         <v>20</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="1" t="n">
+      <c r="F92" s="1">
         <v>41019</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>2012</v>
       </c>
       <c r="H92" t="s">
         <v>44</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>14651</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>139</v>
       </c>
       <c r="B93" t="s">
         <v>140</v>
       </c>
-      <c r="C93"/>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="1" t="n">
+      <c r="F93" s="1">
         <v>9055</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>1924</v>
       </c>
       <c r="H93" t="s">
         <v>38</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>20</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>139</v>
       </c>
       <c r="B94" t="s">
         <v>140</v>
       </c>
-      <c r="C94"/>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
-      <c r="F94" s="1" t="n">
+      <c r="F94" s="1">
         <v>21411</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>1958</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>2.5</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>141</v>
       </c>
       <c r="B95" t="s">
         <v>142</v>
       </c>
-      <c r="C95"/>
       <c r="D95" t="s">
         <v>20</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="1" t="n">
+      <c r="F95" s="1">
         <v>8330</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>1922</v>
       </c>
       <c r="H95" t="s">
         <v>37</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>320</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>143</v>
       </c>
       <c r="B96" t="s">
         <v>61</v>
       </c>
-      <c r="C96"/>
       <c r="D96" t="s">
         <v>12</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="1" t="n">
+      <c r="F96" s="1">
         <v>42747</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>2017</v>
       </c>
       <c r="H96" t="s">
         <v>44</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>5.96</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -3924,74 +3901,72 @@
       <c r="E97" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="1" t="n">
+      <c r="F97" s="1">
         <v>28825</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>1978</v>
       </c>
       <c r="H97" t="s">
         <v>25</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>8220000</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>146</v>
       </c>
       <c r="B98" t="s">
         <v>36</v>
       </c>
-      <c r="C98"/>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="1" t="n">
+      <c r="F98" s="1">
         <v>2877</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>1907</v>
       </c>
       <c r="H98" t="s">
         <v>97</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>160</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>146</v>
       </c>
       <c r="B99" t="s">
         <v>36</v>
       </c>
-      <c r="C99"/>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="1" t="n">
+      <c r="F99" s="1">
         <v>22753</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>1962</v>
       </c>
       <c r="H99" t="s">
         <v>41</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>373.25</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -4007,20 +3982,20 @@
       <c r="E100" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="1" t="n">
+      <c r="F100" s="1">
         <v>9189</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>1925</v>
       </c>
       <c r="H100" t="s">
         <v>38</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>1379315.58</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -4036,20 +4011,20 @@
       <c r="E101" t="s">
         <v>30</v>
       </c>
-      <c r="F101" s="1" t="n">
+      <c r="F101" s="1">
         <v>14353</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>1939</v>
       </c>
       <c r="H101" t="s">
         <v>31</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>904960</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -4065,101 +4040,98 @@
       <c r="E102" t="s">
         <v>30</v>
       </c>
-      <c r="F102" s="1" t="n">
+      <c r="F102" s="1">
         <v>28825</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>1978</v>
       </c>
       <c r="H102" t="s">
         <v>25</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>550000</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>149</v>
       </c>
       <c r="B103" t="s">
         <v>43</v>
       </c>
-      <c r="C103"/>
       <c r="D103" t="s">
         <v>20</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="1" t="n">
+      <c r="F103" s="1">
         <v>42732</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>2016</v>
       </c>
       <c r="H103" t="s">
         <v>44</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>300000</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>150</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
-      <c r="C104"/>
       <c r="D104" t="s">
         <v>12</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="1" t="n">
+      <c r="F104" s="1">
         <v>36910</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>2001</v>
       </c>
       <c r="H104" t="s">
         <v>21</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>20</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>150</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
-      <c r="C105"/>
       <c r="D105" t="s">
         <v>12</v>
       </c>
       <c r="E105" t="s">
         <v>151</v>
       </c>
-      <c r="F105" s="1" t="n">
+      <c r="F105" s="1">
         <v>37652</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>2003</v>
       </c>
       <c r="H105" t="s">
         <v>17</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>22</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -4175,20 +4147,20 @@
       <c r="E106" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="1" t="n">
+      <c r="F106" s="1">
         <v>2933</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>1908</v>
       </c>
       <c r="H106" t="s">
         <v>97</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>808120</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -4204,20 +4176,20 @@
       <c r="E107" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="1" t="n">
+      <c r="F107" s="1">
         <v>12045</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>1932</v>
       </c>
       <c r="H107" t="s">
         <v>29</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>273145</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -4233,20 +4205,20 @@
       <c r="E108" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="1" t="n">
+      <c r="F108" s="1">
         <v>14705</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>1940</v>
       </c>
       <c r="H108" t="s">
         <v>31</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>71854</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -4262,74 +4234,72 @@
       <c r="E109" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="1" t="n">
+      <c r="F109" s="1">
         <v>25223</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>1969</v>
       </c>
       <c r="H109" t="s">
         <v>34</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>32546.69</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>156</v>
       </c>
       <c r="B110" t="s">
         <v>19</v>
       </c>
-      <c r="C110"/>
       <c r="D110" t="s">
         <v>20</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="1" t="n">
+      <c r="F110" s="1">
         <v>36536</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>2000</v>
       </c>
       <c r="H110" t="s">
         <v>21</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>1014000</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>157</v>
       </c>
       <c r="B111" t="s">
         <v>27</v>
       </c>
-      <c r="C111"/>
       <c r="D111" t="s">
         <v>20</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="1" t="n">
+      <c r="F111" s="1">
         <v>35326</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>1996</v>
       </c>
       <c r="H111" t="s">
         <v>21</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>1700000</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>158</v>
       </c>
@@ -4345,20 +4315,20 @@
       <c r="E112" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="1" t="n">
+      <c r="F112" s="1">
         <v>15780</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>1943</v>
       </c>
       <c r="H112" t="s">
         <v>31</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>210950</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>160</v>
       </c>
@@ -4374,20 +4344,20 @@
       <c r="E113" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="1" t="n">
+      <c r="F113" s="1">
         <v>8060</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>1922</v>
       </c>
       <c r="H113" t="s">
         <v>37</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>593.03</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>162</v>
       </c>
@@ -4403,20 +4373,20 @@
       <c r="E114" t="s">
         <v>13</v>
       </c>
-      <c r="F114" s="1" t="n">
+      <c r="F114" s="1">
         <v>11765</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>1932</v>
       </c>
       <c r="H114" t="s">
         <v>29</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>35528.36</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>162</v>
       </c>
@@ -4432,20 +4402,20 @@
       <c r="E115" t="s">
         <v>30</v>
       </c>
-      <c r="F115" s="1" t="n">
+      <c r="F115" s="1">
         <v>20613</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>1956</v>
       </c>
       <c r="H115" t="s">
         <v>32</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>960</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>164</v>
       </c>
@@ -4461,20 +4431,20 @@
       <c r="E116" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="1" t="n">
+      <c r="F116" s="1">
         <v>14382</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>1939</v>
       </c>
       <c r="H116" t="s">
         <v>31</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>9500</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>164</v>
       </c>
@@ -4490,128 +4460,124 @@
       <c r="E117" t="s">
         <v>33</v>
       </c>
-      <c r="F117" s="1" t="n">
+      <c r="F117" s="1">
         <v>16662</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>1945</v>
       </c>
       <c r="H117" t="s">
         <v>39</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>4700</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>166</v>
       </c>
       <c r="B118" t="s">
         <v>167</v>
       </c>
-      <c r="C118"/>
       <c r="D118" t="s">
         <v>48</v>
       </c>
       <c r="E118" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="1" t="n">
+      <c r="F118" s="1">
         <v>36686</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>2000</v>
       </c>
       <c r="H118" t="s">
         <v>21</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>195000</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>168</v>
       </c>
       <c r="B119" t="s">
         <v>103</v>
       </c>
-      <c r="C119"/>
       <c r="D119" t="s">
         <v>169</v>
       </c>
       <c r="E119" t="s">
         <v>170</v>
       </c>
-      <c r="F119" s="1" t="n">
+      <c r="F119" s="1">
         <v>41358</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>2013</v>
       </c>
       <c r="H119" t="s">
         <v>44</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>11750</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>168</v>
       </c>
       <c r="B120" t="s">
         <v>103</v>
       </c>
-      <c r="C120"/>
       <c r="D120" t="s">
         <v>169</v>
       </c>
       <c r="E120" t="s">
         <v>171</v>
       </c>
-      <c r="F120" s="1" t="n">
+      <c r="F120" s="1">
         <v>41992</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>2014</v>
       </c>
       <c r="H120" t="s">
         <v>172</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>480</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>173</v>
       </c>
       <c r="B121" t="s">
         <v>174</v>
       </c>
-      <c r="C121"/>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
       </c>
-      <c r="F121" s="1" t="n">
+      <c r="F121" s="1">
         <v>42049</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>2015</v>
       </c>
       <c r="H121" t="s">
         <v>44</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>123</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>175</v>
       </c>
@@ -4627,182 +4593,176 @@
       <c r="E122" t="s">
         <v>13</v>
       </c>
-      <c r="F122" s="1" t="n">
+      <c r="F122" s="1">
         <v>8462</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>1923</v>
       </c>
       <c r="H122" t="s">
         <v>37</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122">
         <v>57</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>177</v>
       </c>
       <c r="B123" t="s">
         <v>125</v>
       </c>
-      <c r="C123"/>
       <c r="D123" t="s">
         <v>12</v>
       </c>
       <c r="E123" t="s">
         <v>13</v>
       </c>
-      <c r="F123" s="1" t="n">
+      <c r="F123" s="1">
         <v>8462</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>1923</v>
       </c>
       <c r="H123" t="s">
         <v>37</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123">
         <v>285.8</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>177</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
       </c>
-      <c r="C124"/>
       <c r="D124" t="s">
         <v>12</v>
       </c>
       <c r="E124" t="s">
         <v>30</v>
       </c>
-      <c r="F124" s="1" t="n">
+      <c r="F124" s="1">
         <v>18744</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>1951</v>
       </c>
       <c r="H124" t="s">
         <v>39</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124">
         <v>80</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>177</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
-      <c r="C125"/>
       <c r="D125" t="s">
         <v>12</v>
       </c>
       <c r="E125" t="s">
         <v>30</v>
       </c>
-      <c r="F125" s="1" t="n">
+      <c r="F125" s="1">
         <v>19318</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>1952</v>
       </c>
       <c r="H125" t="s">
         <v>39</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125">
         <v>81.02</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>177</v>
       </c>
       <c r="B126" t="s">
         <v>125</v>
       </c>
-      <c r="C126"/>
       <c r="D126" t="s">
         <v>12</v>
       </c>
       <c r="E126" t="s">
         <v>33</v>
       </c>
-      <c r="F126" s="1" t="n">
+      <c r="F126" s="1">
         <v>20551</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>1956</v>
       </c>
       <c r="H126" t="s">
         <v>32</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126">
         <v>40</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>178</v>
       </c>
       <c r="B127" t="s">
         <v>19</v>
       </c>
-      <c r="C127"/>
       <c r="D127" t="s">
         <v>20</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
       </c>
-      <c r="F127" s="1" t="n">
+      <c r="F127" s="1">
         <v>36686</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>2000</v>
       </c>
       <c r="H127" t="s">
         <v>21</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127">
         <v>128917</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>179</v>
       </c>
       <c r="B128" t="s">
         <v>142</v>
       </c>
-      <c r="C128"/>
       <c r="D128" t="s">
         <v>12</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="1" t="n">
+      <c r="F128" s="1">
         <v>2960</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>1908</v>
       </c>
       <c r="H128" t="s">
         <v>97</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128">
         <v>1274.56</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>180</v>
       </c>
@@ -4818,74 +4778,72 @@
       <c r="E129" t="s">
         <v>13</v>
       </c>
-      <c r="F129" s="1" t="n">
+      <c r="F129" s="1">
         <v>13372</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>1936</v>
       </c>
       <c r="H129" t="s">
         <v>31</v>
       </c>
-      <c r="I129" t="n">
+      <c r="I129">
         <v>825340</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>182</v>
       </c>
       <c r="B130" t="s">
         <v>36</v>
       </c>
-      <c r="C130"/>
       <c r="D130" t="s">
         <v>20</v>
       </c>
       <c r="E130" t="s">
         <v>13</v>
       </c>
-      <c r="F130" s="1" t="n">
+      <c r="F130" s="1">
         <v>36908</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>2001</v>
       </c>
       <c r="H130" t="s">
         <v>21</v>
       </c>
-      <c r="I130" t="n">
+      <c r="I130">
         <v>4148</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>183</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
-      <c r="C131"/>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
         <v>13</v>
       </c>
-      <c r="F131" s="1" t="n">
+      <c r="F131" s="1">
         <v>42606</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>2016</v>
       </c>
       <c r="H131" t="s">
         <v>44</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I131">
         <v>87563</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -4901,20 +4859,20 @@
       <c r="E132" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="1" t="n">
+      <c r="F132" s="1">
         <v>6842</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>1918</v>
       </c>
       <c r="H132" t="s">
         <v>14</v>
       </c>
-      <c r="I132" t="n">
+      <c r="I132">
         <v>1088000</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>184</v>
       </c>
@@ -4930,20 +4888,20 @@
       <c r="E133" t="s">
         <v>30</v>
       </c>
-      <c r="F133" s="1" t="n">
+      <c r="F133" s="1">
         <v>25223</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>1969</v>
       </c>
       <c r="H133" t="s">
         <v>34</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I133">
         <v>94547</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -4959,20 +4917,20 @@
       <c r="E134" t="s">
         <v>30</v>
       </c>
-      <c r="F134" s="1" t="n">
+      <c r="F134" s="1">
         <v>28825</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>1978</v>
       </c>
       <c r="H134" t="s">
         <v>25</v>
       </c>
-      <c r="I134" t="n">
+      <c r="I134">
         <v>1370000</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>186</v>
       </c>
@@ -4988,20 +4946,20 @@
       <c r="E135" t="s">
         <v>13</v>
       </c>
-      <c r="F135" s="1" t="n">
+      <c r="F135" s="1">
         <v>28825</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>1978</v>
       </c>
       <c r="H135" t="s">
         <v>25</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I135">
         <v>570000</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -5017,20 +4975,20 @@
       <c r="E136" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="1" t="n">
+      <c r="F136" s="1">
         <v>28825</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>1978</v>
       </c>
       <c r="H136" t="s">
         <v>25</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I136">
         <v>1710000</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>190</v>
       </c>
@@ -5046,20 +5004,20 @@
       <c r="E137" t="s">
         <v>13</v>
       </c>
-      <c r="F137" s="1" t="n">
+      <c r="F137" s="1">
         <v>28825</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>1978</v>
       </c>
       <c r="H137" t="s">
         <v>25</v>
       </c>
-      <c r="I137" t="n">
+      <c r="I137">
         <v>2500000</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>192</v>
       </c>
@@ -5075,20 +5033,20 @@
       <c r="E138" t="s">
         <v>13</v>
       </c>
-      <c r="F138" s="1" t="n">
+      <c r="F138" s="1">
         <v>2683</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>1907</v>
       </c>
       <c r="H138" t="s">
         <v>97</v>
       </c>
-      <c r="I138" t="n">
+      <c r="I138">
         <v>5120</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>192</v>
       </c>
@@ -5104,74 +5062,72 @@
       <c r="E139" t="s">
         <v>13</v>
       </c>
-      <c r="F139" s="1" t="n">
+      <c r="F139" s="1">
         <v>2683</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>1907</v>
       </c>
       <c r="H139" t="s">
         <v>97</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I139">
         <v>1280</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>195</v>
       </c>
       <c r="B140" t="s">
         <v>54</v>
       </c>
-      <c r="C140"/>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="1" t="n">
+      <c r="F140" s="1">
         <v>9457</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>1925</v>
       </c>
       <c r="H140" t="s">
         <v>38</v>
       </c>
-      <c r="I140" t="n">
-        <v>45589.92</v>
-      </c>
-    </row>
-    <row r="141">
+      <c r="I140">
+        <v>45589.919999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>195</v>
       </c>
       <c r="B141" t="s">
         <v>54</v>
       </c>
-      <c r="C141"/>
       <c r="D141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
         <v>30</v>
       </c>
-      <c r="F141" s="1" t="n">
+      <c r="F141" s="1">
         <v>18745</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>1951</v>
       </c>
       <c r="H141" t="s">
         <v>39</v>
       </c>
-      <c r="I141" t="n">
+      <c r="I141">
         <v>211.13</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>196</v>
       </c>
@@ -5187,20 +5143,20 @@
       <c r="E142" t="s">
         <v>13</v>
       </c>
-      <c r="F142" s="1" t="n">
+      <c r="F142" s="1">
         <v>3054</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>1908</v>
       </c>
       <c r="H142" t="s">
         <v>97</v>
       </c>
-      <c r="I142" t="n">
+      <c r="I142">
         <v>160</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>196</v>
       </c>
@@ -5216,20 +5172,20 @@
       <c r="E143" t="s">
         <v>199</v>
       </c>
-      <c r="F143" s="1" t="n">
+      <c r="F143" s="1">
         <v>4154</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>1911</v>
       </c>
       <c r="H143" t="s">
         <v>59</v>
       </c>
-      <c r="I143" t="n">
+      <c r="I143">
         <v>160</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>200</v>
       </c>
@@ -5245,290 +5201,280 @@
       <c r="E144" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="1" t="n">
+      <c r="F144" s="1">
         <v>36908</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>2001</v>
       </c>
       <c r="H144" t="s">
         <v>21</v>
       </c>
-      <c r="I144" t="n">
+      <c r="I144">
         <v>72.75</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>202</v>
       </c>
       <c r="B145" t="s">
         <v>54</v>
       </c>
-      <c r="C145"/>
       <c r="D145" t="s">
         <v>20</v>
       </c>
       <c r="E145" t="s">
         <v>13</v>
       </c>
-      <c r="F145" s="1" t="n">
+      <c r="F145" s="1">
         <v>42412</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>2016</v>
       </c>
       <c r="H145" t="s">
         <v>44</v>
       </c>
-      <c r="I145" t="n">
+      <c r="I145">
         <v>1600000</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>203</v>
       </c>
       <c r="B146" t="s">
         <v>19</v>
       </c>
-      <c r="C146"/>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146" t="s">
         <v>13</v>
       </c>
-      <c r="F146" s="1" t="n">
+      <c r="F146" s="1">
         <v>2534</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>1906</v>
       </c>
       <c r="H146" t="s">
         <v>97</v>
       </c>
-      <c r="I146" t="n">
-        <v>161.39</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="I146">
+        <v>161.38999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>203</v>
       </c>
       <c r="B147" t="s">
         <v>19</v>
       </c>
-      <c r="C147"/>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
         <v>30</v>
       </c>
-      <c r="F147" s="1" t="n">
+      <c r="F147" s="1">
         <v>13569</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>1937</v>
       </c>
       <c r="H147" t="s">
         <v>31</v>
       </c>
-      <c r="I147" t="n">
+      <c r="I147">
         <v>360</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>203</v>
       </c>
       <c r="B148" t="s">
         <v>19</v>
       </c>
-      <c r="C148"/>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
         <v>30</v>
       </c>
-      <c r="F148" s="1" t="n">
+      <c r="F148" s="1">
         <v>28804</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>1978</v>
       </c>
       <c r="H148" t="s">
         <v>204</v>
       </c>
-      <c r="I148" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149">
+      <c r="I148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>203</v>
       </c>
       <c r="B149" t="s">
         <v>19</v>
       </c>
-      <c r="C149"/>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
         <v>205</v>
       </c>
-      <c r="F149" s="1" t="n">
+      <c r="F149" s="1">
         <v>28804</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>1978</v>
       </c>
       <c r="H149" t="s">
         <v>204</v>
       </c>
-      <c r="I149" t="n">
+      <c r="I149">
         <v>5</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>206</v>
       </c>
       <c r="B150" t="s">
         <v>54</v>
       </c>
-      <c r="C150"/>
       <c r="D150" t="s">
         <v>12</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
       </c>
-      <c r="F150" s="1" t="n">
+      <c r="F150" s="1">
         <v>2931</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>1908</v>
       </c>
       <c r="H150" t="s">
         <v>97</v>
       </c>
-      <c r="I150" t="n">
+      <c r="I150">
         <v>295</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>206</v>
       </c>
       <c r="B151" t="s">
         <v>54</v>
       </c>
-      <c r="C151"/>
       <c r="D151" t="s">
         <v>12</v>
       </c>
       <c r="E151" t="s">
         <v>30</v>
       </c>
-      <c r="F151" s="1" t="n">
+      <c r="F151" s="1">
         <v>7936</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>1921</v>
       </c>
       <c r="H151" t="s">
         <v>37</v>
       </c>
-      <c r="I151" t="n">
-        <v>128.14</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="I151">
+        <v>128.13999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>206</v>
       </c>
       <c r="B152" t="s">
         <v>54</v>
       </c>
-      <c r="C152"/>
       <c r="D152" t="s">
         <v>12</v>
       </c>
       <c r="E152" t="s">
         <v>30</v>
       </c>
-      <c r="F152" s="1" t="n">
+      <c r="F152" s="1">
         <v>12879</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>1935</v>
       </c>
       <c r="H152" t="s">
         <v>31</v>
       </c>
-      <c r="I152" t="n">
+      <c r="I152">
         <v>1.36</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>206</v>
       </c>
       <c r="B153" t="s">
         <v>54</v>
       </c>
-      <c r="C153"/>
       <c r="D153" t="s">
         <v>12</v>
       </c>
       <c r="E153" t="s">
         <v>30</v>
       </c>
-      <c r="F153" s="1" t="n">
+      <c r="F153" s="1">
         <v>18805</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153">
         <v>1951</v>
       </c>
       <c r="H153" t="s">
         <v>39</v>
       </c>
-      <c r="I153" t="n">
+      <c r="I153">
         <v>504.27</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>206</v>
       </c>
       <c r="B154" t="s">
         <v>54</v>
       </c>
-      <c r="C154"/>
       <c r="D154" t="s">
         <v>12</v>
       </c>
       <c r="E154" t="s">
         <v>30</v>
       </c>
-      <c r="F154" s="1" t="n">
+      <c r="F154" s="1">
         <v>21801</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>1959</v>
       </c>
       <c r="H154" t="s">
         <v>32</v>
       </c>
-      <c r="I154" t="n">
+      <c r="I154">
         <v>6.16</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>207</v>
       </c>
@@ -5544,20 +5490,20 @@
       <c r="E155" t="s">
         <v>13</v>
       </c>
-      <c r="F155" s="1" t="n">
+      <c r="F155" s="1">
         <v>9169</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>1925</v>
       </c>
       <c r="H155" t="s">
         <v>38</v>
       </c>
-      <c r="I155" t="n">
+      <c r="I155">
         <v>50</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>207</v>
       </c>
@@ -5573,155 +5519,150 @@
       <c r="E156" t="s">
         <v>30</v>
       </c>
-      <c r="F156" s="1" t="n">
+      <c r="F156" s="1">
         <v>10202</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>1927</v>
       </c>
       <c r="H156" t="s">
         <v>38</v>
       </c>
-      <c r="I156" t="n">
+      <c r="I156">
         <v>100</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>210</v>
       </c>
       <c r="B157" t="s">
         <v>27</v>
       </c>
-      <c r="C157"/>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
       </c>
-      <c r="F157" s="1" t="n">
+      <c r="F157" s="1">
         <v>3029</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>1908</v>
       </c>
       <c r="H157" t="s">
         <v>97</v>
       </c>
-      <c r="I157" t="n">
+      <c r="I157">
         <v>120</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>210</v>
       </c>
       <c r="B158" t="s">
         <v>27</v>
       </c>
-      <c r="C158"/>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
         <v>30</v>
       </c>
-      <c r="F158" s="1" t="n">
+      <c r="F158" s="1">
         <v>3556</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>1909</v>
       </c>
       <c r="H158" t="s">
         <v>59</v>
       </c>
-      <c r="I158" t="n">
+      <c r="I158">
         <v>2620</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>210</v>
       </c>
       <c r="B159" t="s">
         <v>27</v>
       </c>
-      <c r="C159"/>
       <c r="D159" t="s">
         <v>12</v>
       </c>
       <c r="E159" t="s">
         <v>30</v>
       </c>
-      <c r="F159" s="1" t="n">
+      <c r="F159" s="1">
         <v>22872</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>1962</v>
       </c>
       <c r="H159" t="s">
         <v>41</v>
       </c>
-      <c r="I159" t="n">
+      <c r="I159">
         <v>5236</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>211</v>
       </c>
       <c r="B160" t="s">
         <v>19</v>
       </c>
-      <c r="C160"/>
       <c r="D160" t="s">
         <v>12</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
       </c>
-      <c r="F160" s="1" t="n">
+      <c r="F160" s="1">
         <v>3367</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>1909</v>
       </c>
       <c r="H160" t="s">
         <v>59</v>
       </c>
-      <c r="I160" t="n">
+      <c r="I160">
         <v>360</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>211</v>
       </c>
       <c r="B161" t="s">
         <v>19</v>
       </c>
-      <c r="C161"/>
       <c r="D161" t="s">
         <v>12</v>
       </c>
       <c r="E161" t="s">
         <v>33</v>
       </c>
-      <c r="F161" s="1" t="n">
+      <c r="F161" s="1">
         <v>4457</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161">
         <v>1912</v>
       </c>
       <c r="H161" t="s">
         <v>59</v>
       </c>
-      <c r="I161" t="n">
+      <c r="I161">
         <v>320</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>212</v>
       </c>
@@ -5737,20 +5678,20 @@
       <c r="E162" t="s">
         <v>13</v>
       </c>
-      <c r="F162" s="1" t="n">
+      <c r="F162" s="1">
         <v>28825</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162">
         <v>1978</v>
       </c>
       <c r="H162" t="s">
         <v>25</v>
       </c>
-      <c r="I162" t="n">
+      <c r="I162">
         <v>5880000</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>214</v>
       </c>
@@ -5766,20 +5707,20 @@
       <c r="E163" t="s">
         <v>13</v>
       </c>
-      <c r="F163" s="1" t="n">
+      <c r="F163" s="1">
         <v>3349</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163">
         <v>1909</v>
       </c>
       <c r="H163" t="s">
         <v>97</v>
       </c>
-      <c r="I163" t="n">
+      <c r="I163">
         <v>639200</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>214</v>
       </c>
@@ -5795,20 +5736,20 @@
       <c r="E164" t="s">
         <v>33</v>
       </c>
-      <c r="F164" s="1" t="n">
+      <c r="F164" s="1">
         <v>4491</v>
       </c>
-      <c r="G164" t="n">
+      <c r="G164">
         <v>1912</v>
       </c>
       <c r="H164" t="s">
         <v>59</v>
       </c>
-      <c r="I164" t="n">
+      <c r="I164">
         <v>160</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>214</v>
       </c>
@@ -5824,20 +5765,20 @@
       <c r="E165" t="s">
         <v>33</v>
       </c>
-      <c r="F165" s="1" t="n">
+      <c r="F165" s="1">
         <v>5610</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165">
         <v>1915</v>
       </c>
       <c r="H165" t="s">
         <v>14</v>
       </c>
-      <c r="I165" t="n">
+      <c r="I165">
         <v>313280</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>214</v>
       </c>
@@ -5853,20 +5794,20 @@
       <c r="E166" t="s">
         <v>33</v>
       </c>
-      <c r="F166" s="1" t="n">
+      <c r="F166" s="1">
         <v>10600</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G166">
         <v>1929</v>
       </c>
       <c r="H166" t="s">
         <v>38</v>
       </c>
-      <c r="I166" t="n">
+      <c r="I166">
         <v>640</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>216</v>
       </c>
@@ -5882,20 +5823,20 @@
       <c r="E167" t="s">
         <v>13</v>
       </c>
-      <c r="F167" s="1" t="n">
+      <c r="F167" s="1">
         <v>3481</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G167">
         <v>1909</v>
       </c>
       <c r="H167" t="s">
         <v>59</v>
       </c>
-      <c r="I167" t="n">
+      <c r="I167">
         <v>465.8</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>216</v>
       </c>
@@ -5911,74 +5852,72 @@
       <c r="E168" t="s">
         <v>30</v>
       </c>
-      <c r="F168" s="1" t="n">
+      <c r="F168" s="1">
         <v>28804</v>
       </c>
-      <c r="G168" t="n">
+      <c r="G168">
         <v>1978</v>
       </c>
       <c r="H168" t="s">
         <v>204</v>
       </c>
-      <c r="I168" t="n">
+      <c r="I168">
         <v>8</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>218</v>
       </c>
       <c r="B169" t="s">
         <v>36</v>
       </c>
-      <c r="C169"/>
       <c r="D169" t="s">
         <v>20</v>
       </c>
       <c r="E169" t="s">
         <v>13</v>
       </c>
-      <c r="F169" s="1" t="n">
+      <c r="F169" s="1">
         <v>41780</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G169">
         <v>2014</v>
       </c>
       <c r="H169" t="s">
         <v>44</v>
       </c>
-      <c r="I169" t="n">
+      <c r="I169">
         <v>496330</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>219</v>
       </c>
       <c r="B170" t="s">
         <v>19</v>
       </c>
-      <c r="C170"/>
       <c r="D170" t="s">
         <v>12</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
       </c>
-      <c r="F170" s="1" t="n">
+      <c r="F170" s="1">
         <v>13618</v>
       </c>
-      <c r="G170" t="n">
+      <c r="G170">
         <v>1937</v>
       </c>
       <c r="H170" t="s">
         <v>31</v>
       </c>
-      <c r="I170" t="n">
+      <c r="I170">
         <v>330690</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>220</v>
       </c>
@@ -5994,20 +5933,20 @@
       <c r="E171" t="s">
         <v>13</v>
       </c>
-      <c r="F171" s="1" t="n">
+      <c r="F171" s="1">
         <v>5145</v>
       </c>
-      <c r="G171" t="n">
+      <c r="G171">
         <v>1914</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
       </c>
-      <c r="I171" t="n">
-        <v>2050.43</v>
-      </c>
-    </row>
-    <row r="172">
+      <c r="I171">
+        <v>2050.4299999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>223</v>
       </c>
@@ -6023,20 +5962,20 @@
       <c r="E172" t="s">
         <v>13</v>
       </c>
-      <c r="F172" s="1" t="n">
+      <c r="F172" s="1">
         <v>9380</v>
       </c>
-      <c r="G172" t="n">
+      <c r="G172">
         <v>1925</v>
       </c>
       <c r="H172" t="s">
         <v>38</v>
       </c>
-      <c r="I172" t="n">
+      <c r="I172">
         <v>0.01</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>226</v>
       </c>
@@ -6052,20 +5991,20 @@
       <c r="E173" t="s">
         <v>13</v>
       </c>
-      <c r="F173" s="1" t="n">
+      <c r="F173" s="1">
         <v>3264</v>
       </c>
-      <c r="G173" t="n">
+      <c r="G173">
         <v>1908</v>
       </c>
       <c r="H173" t="s">
         <v>97</v>
       </c>
-      <c r="I173" t="n">
+      <c r="I173">
         <v>300</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>228</v>
       </c>
@@ -6081,20 +6020,20 @@
       <c r="E174" t="s">
         <v>13</v>
       </c>
-      <c r="F174" s="1" t="n">
+      <c r="F174" s="1">
         <v>36631</v>
       </c>
-      <c r="G174" t="n">
+      <c r="G174">
         <v>2000</v>
       </c>
       <c r="H174" t="s">
         <v>21</v>
       </c>
-      <c r="I174" t="n">
+      <c r="I174">
         <v>327769</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>230</v>
       </c>
@@ -6110,20 +6049,20 @@
       <c r="E175" t="s">
         <v>13</v>
       </c>
-      <c r="F175" s="1" t="n">
+      <c r="F175" s="1">
         <v>6143</v>
       </c>
-      <c r="G175" t="n">
+      <c r="G175">
         <v>1916</v>
       </c>
       <c r="H175" t="s">
         <v>14</v>
       </c>
-      <c r="I175" t="n">
+      <c r="I175">
         <v>43</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>230</v>
       </c>
@@ -6139,20 +6078,20 @@
       <c r="E176" t="s">
         <v>13</v>
       </c>
-      <c r="F176" s="1" t="n">
+      <c r="F176" s="1">
         <v>28825</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G176">
         <v>1978</v>
       </c>
       <c r="H176" t="s">
         <v>25</v>
       </c>
-      <c r="I176" t="n">
+      <c r="I176">
         <v>1100000</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>230</v>
       </c>
@@ -6168,20 +6107,20 @@
       <c r="E177" t="s">
         <v>13</v>
       </c>
-      <c r="F177" s="1" t="n">
+      <c r="F177" s="1">
         <v>28825</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G177">
         <v>1978</v>
       </c>
       <c r="H177" t="s">
         <v>25</v>
       </c>
-      <c r="I177" t="n">
+      <c r="I177">
         <v>2285000</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>234</v>
       </c>
@@ -6197,20 +6136,20 @@
       <c r="E178" t="s">
         <v>13</v>
       </c>
-      <c r="F178" s="1" t="n">
+      <c r="F178" s="1">
         <v>10724</v>
       </c>
-      <c r="G178" t="n">
+      <c r="G178">
         <v>1929</v>
       </c>
       <c r="H178" t="s">
         <v>29</v>
       </c>
-      <c r="I178" t="n">
+      <c r="I178">
         <v>1392</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>236</v>
       </c>
@@ -6226,20 +6165,20 @@
       <c r="E179" t="s">
         <v>13</v>
       </c>
-      <c r="F179" s="1" t="n">
+      <c r="F179" s="1">
         <v>2534</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G179">
         <v>1906</v>
       </c>
       <c r="H179" t="s">
         <v>97</v>
       </c>
-      <c r="I179" t="n">
+      <c r="I179">
         <v>60776.02</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>236</v>
       </c>
@@ -6255,20 +6194,20 @@
       <c r="E180" t="s">
         <v>33</v>
       </c>
-      <c r="F180" s="1" t="n">
+      <c r="F180" s="1">
         <v>4230</v>
       </c>
-      <c r="G180" t="n">
+      <c r="G180">
         <v>1911</v>
       </c>
       <c r="H180" t="s">
         <v>59</v>
       </c>
-      <c r="I180" t="n">
-        <v>25625.6</v>
-      </c>
-    </row>
-    <row r="181">
+      <c r="I180">
+        <v>25625.599999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>236</v>
       </c>
@@ -6284,20 +6223,20 @@
       <c r="E181" t="s">
         <v>30</v>
       </c>
-      <c r="F181" s="1" t="n">
+      <c r="F181" s="1">
         <v>11276</v>
       </c>
-      <c r="G181" t="n">
+      <c r="G181">
         <v>1930</v>
       </c>
       <c r="H181" t="s">
         <v>29</v>
       </c>
-      <c r="I181" t="n">
+      <c r="I181">
         <v>11010</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>236</v>
       </c>
@@ -6313,20 +6252,20 @@
       <c r="E182" t="s">
         <v>30</v>
       </c>
-      <c r="F182" s="1" t="n">
+      <c r="F182" s="1">
         <v>11955</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G182">
         <v>1932</v>
       </c>
       <c r="H182" t="s">
         <v>29</v>
       </c>
-      <c r="I182" t="n">
+      <c r="I182">
         <v>53300</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>238</v>
       </c>
@@ -6342,20 +6281,20 @@
       <c r="E183" t="s">
         <v>13</v>
       </c>
-      <c r="F183" s="1" t="n">
+      <c r="F183" s="1">
         <v>2938</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G183">
         <v>1908</v>
       </c>
       <c r="H183" t="s">
         <v>97</v>
       </c>
-      <c r="I183" t="n">
+      <c r="I183">
         <v>1320</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>238</v>
       </c>
@@ -6371,20 +6310,20 @@
       <c r="E184" t="s">
         <v>30</v>
       </c>
-      <c r="F184" s="1" t="n">
+      <c r="F184" s="1">
         <v>8528</v>
       </c>
-      <c r="G184" t="n">
+      <c r="G184">
         <v>1923</v>
       </c>
       <c r="H184" t="s">
         <v>37</v>
       </c>
-      <c r="I184" t="n">
+      <c r="I184">
         <v>2653.46</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>238</v>
       </c>
@@ -6400,20 +6339,20 @@
       <c r="E185" t="s">
         <v>30</v>
       </c>
-      <c r="F185" s="1" t="n">
+      <c r="F185" s="1">
         <v>8950</v>
       </c>
-      <c r="G185" t="n">
+      <c r="G185">
         <v>1924</v>
       </c>
       <c r="H185" t="s">
         <v>38</v>
       </c>
-      <c r="I185" t="n">
+      <c r="I185">
         <v>2980.26</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>238</v>
       </c>
@@ -6429,20 +6368,20 @@
       <c r="E186" t="s">
         <v>30</v>
       </c>
-      <c r="F186" s="1" t="n">
+      <c r="F186" s="1">
         <v>11426</v>
       </c>
-      <c r="G186" t="n">
+      <c r="G186">
         <v>1931</v>
       </c>
       <c r="H186" t="s">
         <v>29</v>
       </c>
-      <c r="I186" t="n">
+      <c r="I186">
         <v>1926.35</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>238</v>
       </c>
@@ -6458,20 +6397,20 @@
       <c r="E187" t="s">
         <v>30</v>
       </c>
-      <c r="F187" s="1" t="n">
+      <c r="F187" s="1">
         <v>12246</v>
       </c>
-      <c r="G187" t="n">
+      <c r="G187">
         <v>1933</v>
       </c>
       <c r="H187" t="s">
         <v>31</v>
       </c>
-      <c r="I187" t="n">
+      <c r="I187">
         <v>4805</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>238</v>
       </c>
@@ -6487,20 +6426,20 @@
       <c r="E188" t="s">
         <v>30</v>
       </c>
-      <c r="F188" s="1" t="n">
+      <c r="F188" s="1">
         <v>15315</v>
       </c>
-      <c r="G188" t="n">
+      <c r="G188">
         <v>1941</v>
       </c>
       <c r="H188" t="s">
         <v>31</v>
       </c>
-      <c r="I188" t="n">
+      <c r="I188">
         <v>4589.26</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>238</v>
       </c>
@@ -6516,20 +6455,20 @@
       <c r="E189" t="s">
         <v>30</v>
       </c>
-      <c r="F189" s="1" t="n">
+      <c r="F189" s="1">
         <v>36536</v>
       </c>
-      <c r="G189" t="n">
+      <c r="G189">
         <v>2000</v>
       </c>
       <c r="H189" t="s">
         <v>21</v>
       </c>
-      <c r="I189" t="n">
+      <c r="I189">
         <v>7900</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>238</v>
       </c>
@@ -6545,236 +6484,228 @@
       <c r="E190" t="s">
         <v>240</v>
       </c>
-      <c r="F190" s="1" t="n">
+      <c r="F190" s="1">
         <v>41284</v>
       </c>
-      <c r="G190" t="n">
+      <c r="G190">
         <v>2013</v>
       </c>
       <c r="H190" t="s">
         <v>241</v>
       </c>
-      <c r="I190" t="n">
+      <c r="I190">
         <v>440</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>242</v>
       </c>
       <c r="B191" t="s">
         <v>19</v>
       </c>
-      <c r="C191"/>
       <c r="D191" t="s">
         <v>12</v>
       </c>
       <c r="E191" t="s">
         <v>13</v>
       </c>
-      <c r="F191" s="1" t="n">
+      <c r="F191" s="1">
         <v>8552</v>
       </c>
-      <c r="G191" t="n">
+      <c r="G191">
         <v>1923</v>
       </c>
       <c r="H191" t="s">
         <v>37</v>
       </c>
-      <c r="I191" t="n">
+      <c r="I191">
         <v>40</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>243</v>
       </c>
       <c r="B192" t="s">
         <v>57</v>
       </c>
-      <c r="C192"/>
       <c r="D192" t="s">
         <v>20</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
       </c>
-      <c r="F192" s="1" t="n">
+      <c r="F192" s="1">
         <v>36908</v>
       </c>
-      <c r="G192" t="n">
+      <c r="G192">
         <v>2001</v>
       </c>
       <c r="H192" t="s">
         <v>21</v>
       </c>
-      <c r="I192" t="n">
+      <c r="I192">
         <v>51</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>244</v>
       </c>
       <c r="B193" t="s">
         <v>50</v>
       </c>
-      <c r="C193"/>
       <c r="D193" t="s">
         <v>12</v>
       </c>
       <c r="E193" t="s">
         <v>13</v>
       </c>
-      <c r="F193" s="1" t="n">
+      <c r="F193" s="1">
         <v>36714</v>
       </c>
-      <c r="G193" t="n">
+      <c r="G193">
         <v>2000</v>
       </c>
       <c r="H193" t="s">
         <v>21</v>
       </c>
-      <c r="I193" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="194">
+      <c r="I193">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>245</v>
       </c>
       <c r="B194" t="s">
         <v>246</v>
       </c>
-      <c r="C194"/>
       <c r="D194" t="s">
         <v>12</v>
       </c>
       <c r="E194" t="s">
         <v>13</v>
       </c>
-      <c r="F194" s="1" t="n">
+      <c r="F194" s="1">
         <v>42054</v>
       </c>
-      <c r="G194" t="n">
+      <c r="G194">
         <v>2015</v>
       </c>
       <c r="H194" t="s">
         <v>44</v>
       </c>
-      <c r="I194" t="n">
+      <c r="I194">
         <v>0.24</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>247</v>
       </c>
       <c r="B195" t="s">
         <v>27</v>
       </c>
-      <c r="C195"/>
       <c r="D195" t="s">
         <v>12</v>
       </c>
       <c r="E195" t="s">
         <v>13</v>
       </c>
-      <c r="F195" s="1" t="n">
+      <c r="F195" s="1">
         <v>3803</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G195">
         <v>1910</v>
       </c>
       <c r="H195" t="s">
         <v>59</v>
       </c>
-      <c r="I195" t="n">
+      <c r="I195">
         <v>160</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>248</v>
       </c>
       <c r="B196" t="s">
         <v>91</v>
       </c>
-      <c r="C196"/>
       <c r="D196" t="s">
         <v>12</v>
       </c>
       <c r="E196" t="s">
         <v>13</v>
       </c>
-      <c r="F196" s="1" t="n">
+      <c r="F196" s="1">
         <v>42747</v>
       </c>
-      <c r="G196" t="n">
+      <c r="G196">
         <v>2017</v>
       </c>
       <c r="H196" t="s">
         <v>44</v>
       </c>
-      <c r="I196" t="n">
+      <c r="I196">
         <v>15.56</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>249</v>
       </c>
       <c r="B197" t="s">
         <v>36</v>
       </c>
-      <c r="C197"/>
       <c r="D197" t="s">
         <v>20</v>
       </c>
       <c r="E197" t="s">
         <v>13</v>
       </c>
-      <c r="F197" s="1" t="n">
+      <c r="F197" s="1">
         <v>41358</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G197">
         <v>2013</v>
       </c>
       <c r="H197" t="s">
         <v>44</v>
       </c>
-      <c r="I197" t="n">
+      <c r="I197">
         <v>242555</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>250</v>
       </c>
       <c r="B198" t="s">
         <v>61</v>
       </c>
-      <c r="C198"/>
       <c r="D198" t="s">
         <v>12</v>
       </c>
       <c r="E198" t="s">
         <v>13</v>
       </c>
-      <c r="F198" s="1" t="n">
+      <c r="F198" s="1">
         <v>22412</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G198">
         <v>1961</v>
       </c>
       <c r="H198" t="s">
         <v>41</v>
       </c>
-      <c r="I198" t="n">
+      <c r="I198">
         <v>310.45</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>251</v>
       </c>
@@ -6790,20 +6721,20 @@
       <c r="E199" t="s">
         <v>13</v>
       </c>
-      <c r="F199" s="1" t="n">
+      <c r="F199" s="1">
         <v>12114</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G199">
         <v>1933</v>
       </c>
       <c r="H199" t="s">
         <v>29</v>
       </c>
-      <c r="I199" t="n">
-        <v>53510.08</v>
-      </c>
-    </row>
-    <row r="200">
+      <c r="I199">
+        <v>53510.080000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>251</v>
       </c>
@@ -6819,20 +6750,20 @@
       <c r="E200" t="s">
         <v>30</v>
       </c>
-      <c r="F200" s="1" t="n">
+      <c r="F200" s="1">
         <v>22600</v>
       </c>
-      <c r="G200" t="n">
+      <c r="G200">
         <v>1961</v>
       </c>
       <c r="H200" t="s">
         <v>41</v>
       </c>
-      <c r="I200" t="n">
+      <c r="I200">
         <v>15360</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>253</v>
       </c>
@@ -6848,20 +6779,20 @@
       <c r="E201" t="s">
         <v>13</v>
       </c>
-      <c r="F201" s="1" t="n">
+      <c r="F201" s="1">
         <v>3593</v>
       </c>
-      <c r="G201" t="n">
+      <c r="G201">
         <v>1909</v>
       </c>
       <c r="H201" t="s">
         <v>59</v>
       </c>
-      <c r="I201" t="n">
+      <c r="I201">
         <v>160</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>253</v>
       </c>
@@ -6877,155 +6808,150 @@
       <c r="E202" t="s">
         <v>30</v>
       </c>
-      <c r="F202" s="1" t="n">
+      <c r="F202" s="1">
         <v>7269</v>
       </c>
-      <c r="G202" t="n">
+      <c r="G202">
         <v>1919</v>
       </c>
       <c r="H202" t="s">
         <v>14</v>
       </c>
-      <c r="I202" t="n">
+      <c r="I202">
         <v>240</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>255</v>
       </c>
       <c r="B203" t="s">
         <v>54</v>
       </c>
-      <c r="C203"/>
       <c r="D203" t="s">
         <v>55</v>
       </c>
       <c r="E203" t="s">
         <v>13</v>
       </c>
-      <c r="F203" s="1" t="n">
+      <c r="F203" s="1">
         <v>41922</v>
       </c>
-      <c r="G203" t="n">
+      <c r="G203">
         <v>2014</v>
       </c>
       <c r="H203" t="s">
         <v>44</v>
       </c>
-      <c r="I203" t="n">
+      <c r="I203">
         <v>346177</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>256</v>
       </c>
       <c r="B204" t="s">
         <v>167</v>
       </c>
-      <c r="C204"/>
       <c r="D204" t="s">
         <v>20</v>
       </c>
       <c r="E204" t="s">
         <v>13</v>
       </c>
-      <c r="F204" s="1" t="n">
+      <c r="F204" s="1">
         <v>41358</v>
       </c>
-      <c r="G204" t="n">
+      <c r="G204">
         <v>2013</v>
       </c>
       <c r="H204" t="s">
         <v>44</v>
       </c>
-      <c r="I204" t="n">
+      <c r="I204">
         <v>970</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>257</v>
       </c>
       <c r="B205" t="s">
         <v>54</v>
       </c>
-      <c r="C205"/>
       <c r="D205" t="s">
         <v>55</v>
       </c>
       <c r="E205" t="s">
         <v>13</v>
       </c>
-      <c r="F205" s="1" t="n">
+      <c r="F205" s="1">
         <v>42412</v>
       </c>
-      <c r="G205" t="n">
+      <c r="G205">
         <v>2016</v>
       </c>
       <c r="H205" t="s">
         <v>44</v>
       </c>
-      <c r="I205" t="n">
+      <c r="I205">
         <v>154000</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>258</v>
       </c>
       <c r="B206" t="s">
         <v>259</v>
       </c>
-      <c r="C206"/>
       <c r="D206" t="s">
         <v>12</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
       </c>
-      <c r="F206" s="1" t="n">
+      <c r="F206" s="1">
         <v>7286</v>
       </c>
-      <c r="G206" t="n">
+      <c r="G206">
         <v>1919</v>
       </c>
       <c r="H206" t="s">
         <v>14</v>
       </c>
-      <c r="I206" t="n">
+      <c r="I206">
         <v>2053.83</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>258</v>
       </c>
       <c r="B207" t="s">
         <v>259</v>
       </c>
-      <c r="C207"/>
       <c r="D207" t="s">
         <v>12</v>
       </c>
       <c r="E207" t="s">
         <v>30</v>
       </c>
-      <c r="F207" s="1" t="n">
+      <c r="F207" s="1">
         <v>14699</v>
       </c>
-      <c r="G207" t="n">
+      <c r="G207">
         <v>1940</v>
       </c>
       <c r="H207" t="s">
         <v>31</v>
       </c>
-      <c r="I207" t="n">
+      <c r="I207">
         <v>53.34</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>260</v>
       </c>
@@ -7041,20 +6967,20 @@
       <c r="E208" t="s">
         <v>13</v>
       </c>
-      <c r="F208" s="1" t="n">
+      <c r="F208" s="1">
         <v>3735</v>
       </c>
-      <c r="G208" t="n">
+      <c r="G208">
         <v>1910</v>
       </c>
       <c r="H208" t="s">
         <v>59</v>
       </c>
-      <c r="I208" t="n">
+      <c r="I208">
         <v>57</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>260</v>
       </c>
@@ -7070,47 +6996,46 @@
       <c r="E209" t="s">
         <v>262</v>
       </c>
-      <c r="F209" s="1" t="n">
+      <c r="F209" s="1">
         <v>19049</v>
       </c>
-      <c r="G209" t="n">
+      <c r="G209">
         <v>1952</v>
       </c>
       <c r="H209" t="s">
         <v>39</v>
       </c>
-      <c r="I209" t="n">
+      <c r="I209">
         <v>54.33</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>263</v>
       </c>
       <c r="B210" t="s">
         <v>19</v>
       </c>
-      <c r="C210"/>
       <c r="D210" t="s">
         <v>20</v>
       </c>
       <c r="E210" t="s">
         <v>13</v>
       </c>
-      <c r="F210" s="1" t="n">
+      <c r="F210" s="1">
         <v>36908</v>
       </c>
-      <c r="G210" t="n">
+      <c r="G210">
         <v>2001</v>
       </c>
       <c r="H210" t="s">
         <v>21</v>
       </c>
-      <c r="I210" t="n">
+      <c r="I210">
         <v>486149</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>264</v>
       </c>
@@ -7126,20 +7051,20 @@
       <c r="E211" t="s">
         <v>13</v>
       </c>
-      <c r="F211" s="1" t="n">
+      <c r="F211" s="1">
         <v>3552</v>
       </c>
-      <c r="G211" t="n">
+      <c r="G211">
         <v>1909</v>
       </c>
       <c r="H211" t="s">
         <v>59</v>
       </c>
-      <c r="I211" t="n">
+      <c r="I211">
         <v>210</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>266</v>
       </c>
@@ -7155,20 +7080,20 @@
       <c r="E212" t="s">
         <v>13</v>
       </c>
-      <c r="F212" s="1" t="n">
+      <c r="F212" s="1">
         <v>9055</v>
       </c>
-      <c r="G212" t="n">
+      <c r="G212">
         <v>1924</v>
       </c>
       <c r="H212" t="s">
         <v>38</v>
       </c>
-      <c r="I212" t="n">
+      <c r="I212">
         <v>2.5</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>266</v>
       </c>
@@ -7184,20 +7109,20 @@
       <c r="E213" t="s">
         <v>30</v>
       </c>
-      <c r="F213" s="1" t="n">
+      <c r="F213" s="1">
         <v>13765</v>
       </c>
-      <c r="G213" t="n">
+      <c r="G213">
         <v>1937</v>
       </c>
       <c r="H213" t="s">
         <v>31</v>
       </c>
-      <c r="I213" t="n">
+      <c r="I213">
         <v>7.88</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>266</v>
       </c>
@@ -7213,47 +7138,46 @@
       <c r="E214" t="s">
         <v>268</v>
       </c>
-      <c r="F214" s="1" t="n">
+      <c r="F214" s="1">
         <v>23873</v>
       </c>
-      <c r="G214" t="n">
+      <c r="G214">
         <v>1965</v>
       </c>
       <c r="H214" t="s">
         <v>34</v>
       </c>
-      <c r="I214" t="n">
+      <c r="I214">
         <v>48</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>269</v>
       </c>
       <c r="B215" t="s">
         <v>16</v>
       </c>
-      <c r="C215"/>
       <c r="D215" t="s">
         <v>12</v>
       </c>
       <c r="E215" t="s">
         <v>13</v>
       </c>
-      <c r="F215" s="1" t="n">
+      <c r="F215" s="1">
         <v>42545</v>
       </c>
-      <c r="G215" t="n">
+      <c r="G215">
         <v>2016</v>
       </c>
       <c r="H215" t="s">
         <v>44</v>
       </c>
-      <c r="I215" t="n">
+      <c r="I215">
         <v>0.12</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>270</v>
       </c>
@@ -7269,20 +7193,20 @@
       <c r="E216" t="s">
         <v>13</v>
       </c>
-      <c r="F216" s="1" t="n">
+      <c r="F216" s="1">
         <v>11104</v>
       </c>
-      <c r="G216" t="n">
+      <c r="G216">
         <v>1930</v>
       </c>
       <c r="H216" t="s">
         <v>29</v>
       </c>
-      <c r="I216" t="n">
+      <c r="I216">
         <v>3040</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>272</v>
       </c>
@@ -7298,101 +7222,98 @@
       <c r="E217" t="s">
         <v>13</v>
       </c>
-      <c r="F217" s="1" t="n">
+      <c r="F217" s="1">
         <v>20650</v>
       </c>
-      <c r="G217" t="n">
+      <c r="G217">
         <v>1956</v>
       </c>
       <c r="H217" t="s">
         <v>32</v>
       </c>
-      <c r="I217" t="n">
+      <c r="I217">
         <v>1.51</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>275</v>
       </c>
       <c r="B218" t="s">
         <v>27</v>
       </c>
-      <c r="C218"/>
       <c r="D218" t="s">
         <v>12</v>
       </c>
       <c r="E218" t="s">
         <v>13</v>
       </c>
-      <c r="F218" s="1" t="n">
+      <c r="F218" s="1">
         <v>8323</v>
       </c>
-      <c r="G218" t="n">
+      <c r="G218">
         <v>1922</v>
       </c>
       <c r="H218" t="s">
         <v>37</v>
       </c>
-      <c r="I218" t="n">
+      <c r="I218">
         <v>250</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>276</v>
       </c>
       <c r="B219" t="s">
         <v>19</v>
       </c>
-      <c r="C219"/>
       <c r="D219" t="s">
         <v>12</v>
       </c>
       <c r="E219" t="s">
         <v>13</v>
       </c>
-      <c r="F219" s="1" t="n">
+      <c r="F219" s="1">
         <v>2910</v>
       </c>
-      <c r="G219" t="n">
+      <c r="G219">
         <v>1907</v>
       </c>
       <c r="H219" t="s">
         <v>97</v>
       </c>
-      <c r="I219" t="n">
+      <c r="I219">
         <v>640</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>276</v>
       </c>
       <c r="B220" t="s">
         <v>19</v>
       </c>
-      <c r="C220"/>
       <c r="D220" t="s">
         <v>12</v>
       </c>
       <c r="E220" t="s">
         <v>30</v>
       </c>
-      <c r="F220" s="1" t="n">
+      <c r="F220" s="1">
         <v>13606</v>
       </c>
-      <c r="G220" t="n">
+      <c r="G220">
         <v>1937</v>
       </c>
       <c r="H220" t="s">
         <v>31</v>
       </c>
-      <c r="I220" t="n">
+      <c r="I220">
         <v>480</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>277</v>
       </c>
@@ -7408,20 +7329,20 @@
       <c r="E221" t="s">
         <v>13</v>
       </c>
-      <c r="F221" s="1" t="n">
+      <c r="F221" s="1">
         <v>3181</v>
       </c>
-      <c r="G221" t="n">
+      <c r="G221">
         <v>1908</v>
       </c>
       <c r="H221" t="s">
         <v>97</v>
       </c>
-      <c r="I221" t="n">
+      <c r="I221">
         <v>10</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>277</v>
       </c>
@@ -7437,20 +7358,20 @@
       <c r="E222" t="s">
         <v>30</v>
       </c>
-      <c r="F222" s="1" t="n">
+      <c r="F222" s="1">
         <v>21272</v>
       </c>
-      <c r="G222" t="n">
+      <c r="G222">
         <v>1958</v>
       </c>
       <c r="H222" t="s">
         <v>32</v>
       </c>
-      <c r="I222" t="n">
+      <c r="I222">
         <v>0.15</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>277</v>
       </c>
@@ -7466,20 +7387,20 @@
       <c r="E223" t="s">
         <v>30</v>
       </c>
-      <c r="F223" s="1" t="n">
+      <c r="F223" s="1">
         <v>28804</v>
       </c>
-      <c r="G223" t="n">
+      <c r="G223">
         <v>1978</v>
       </c>
       <c r="H223" t="s">
         <v>204</v>
       </c>
-      <c r="I223" t="n">
+      <c r="I223">
         <v>7</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>277</v>
       </c>
@@ -7495,344 +7416,332 @@
       <c r="E224" t="s">
         <v>205</v>
       </c>
-      <c r="F224" s="1" t="n">
+      <c r="F224" s="1">
         <v>28804</v>
       </c>
-      <c r="G224" t="n">
+      <c r="G224">
         <v>1978</v>
       </c>
       <c r="H224" t="s">
         <v>204</v>
       </c>
-      <c r="I224" t="n">
+      <c r="I224">
         <v>0.01</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>279</v>
       </c>
       <c r="B225" t="s">
         <v>19</v>
       </c>
-      <c r="C225"/>
       <c r="D225" t="s">
         <v>12</v>
       </c>
       <c r="E225" t="s">
         <v>13</v>
       </c>
-      <c r="F225" s="1" t="n">
+      <c r="F225" s="1">
         <v>14451</v>
       </c>
-      <c r="G225" t="n">
+      <c r="G225">
         <v>1939</v>
       </c>
       <c r="H225" t="s">
         <v>31</v>
       </c>
-      <c r="I225" t="n">
+      <c r="I225">
         <v>42.67</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>279</v>
       </c>
       <c r="B226" t="s">
         <v>19</v>
       </c>
-      <c r="C226"/>
       <c r="D226" t="s">
         <v>12</v>
       </c>
       <c r="E226" t="s">
         <v>30</v>
       </c>
-      <c r="F226" s="1" t="n">
+      <c r="F226" s="1">
         <v>28804</v>
       </c>
-      <c r="G226" t="n">
+      <c r="G226">
         <v>1978</v>
       </c>
       <c r="H226" t="s">
         <v>204</v>
       </c>
-      <c r="I226" t="n">
+      <c r="I226">
         <v>791</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>280</v>
       </c>
       <c r="B227" t="s">
         <v>57</v>
       </c>
-      <c r="C227"/>
       <c r="D227" t="s">
         <v>20</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
       </c>
-      <c r="F227" s="1" t="n">
+      <c r="F227" s="1">
         <v>36908</v>
       </c>
-      <c r="G227" t="n">
+      <c r="G227">
         <v>2001</v>
       </c>
       <c r="H227" t="s">
         <v>21</v>
       </c>
-      <c r="I227" t="n">
+      <c r="I227">
         <v>377346</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>281</v>
       </c>
       <c r="B228" t="s">
         <v>19</v>
       </c>
-      <c r="C228"/>
       <c r="D228" t="s">
         <v>20</v>
       </c>
       <c r="E228" t="s">
         <v>13</v>
       </c>
-      <c r="F228" s="1" t="n">
+      <c r="F228" s="1">
         <v>36839</v>
       </c>
-      <c r="G228" t="n">
+      <c r="G228">
         <v>2000</v>
       </c>
       <c r="H228" t="s">
         <v>21</v>
       </c>
-      <c r="I228" t="n">
+      <c r="I228">
         <v>293000</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>282</v>
       </c>
       <c r="B229" t="s">
         <v>69</v>
       </c>
-      <c r="C229"/>
       <c r="D229" t="s">
         <v>12</v>
       </c>
       <c r="E229" t="s">
         <v>13</v>
       </c>
-      <c r="F229" s="1" t="n">
+      <c r="F229" s="1">
         <v>36908</v>
       </c>
-      <c r="G229" t="n">
+      <c r="G229">
         <v>2001</v>
       </c>
       <c r="H229" t="s">
         <v>21</v>
       </c>
-      <c r="I229" t="n">
+      <c r="I229">
         <v>12708</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>283</v>
       </c>
       <c r="B230" t="s">
         <v>284</v>
       </c>
-      <c r="C230"/>
       <c r="D230" t="s">
         <v>12</v>
       </c>
       <c r="E230" t="s">
         <v>13</v>
       </c>
-      <c r="F230" s="1" t="n">
+      <c r="F230" s="1">
         <v>42195</v>
       </c>
-      <c r="G230" t="n">
+      <c r="G230">
         <v>2015</v>
       </c>
       <c r="H230" t="s">
         <v>44</v>
       </c>
-      <c r="I230" t="n">
+      <c r="I230">
         <v>7.11</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>285</v>
       </c>
       <c r="B231" t="s">
         <v>19</v>
       </c>
-      <c r="C231"/>
       <c r="D231" t="s">
         <v>12</v>
       </c>
       <c r="E231" t="s">
         <v>13</v>
       </c>
-      <c r="F231" s="1" t="n">
+      <c r="F231" s="1">
         <v>5813</v>
       </c>
-      <c r="G231" t="n">
+      <c r="G231">
         <v>1915</v>
       </c>
       <c r="H231" t="s">
         <v>14</v>
       </c>
-      <c r="I231" t="n">
+      <c r="I231">
         <v>960</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>285</v>
       </c>
       <c r="B232" t="s">
         <v>19</v>
       </c>
-      <c r="C232"/>
       <c r="D232" t="s">
         <v>12</v>
       </c>
       <c r="E232" t="s">
         <v>30</v>
       </c>
-      <c r="F232" s="1" t="n">
+      <c r="F232" s="1">
         <v>14147</v>
       </c>
-      <c r="G232" t="n">
+      <c r="G232">
         <v>1938</v>
       </c>
       <c r="H232" t="s">
         <v>31</v>
       </c>
-      <c r="I232" t="n">
+      <c r="I232">
         <v>913.6</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>286</v>
       </c>
       <c r="B233" t="s">
         <v>36</v>
       </c>
-      <c r="C233"/>
       <c r="D233" t="s">
         <v>12</v>
       </c>
       <c r="E233" t="s">
         <v>13</v>
       </c>
-      <c r="F233" s="1" t="n">
+      <c r="F233" s="1">
         <v>12072</v>
       </c>
-      <c r="G233" t="n">
+      <c r="G233">
         <v>1933</v>
       </c>
       <c r="H233" t="s">
         <v>29</v>
       </c>
-      <c r="I233" t="n">
+      <c r="I233">
         <v>131486.84</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>286</v>
       </c>
       <c r="B234" t="s">
         <v>36</v>
       </c>
-      <c r="C234"/>
       <c r="D234" t="s">
         <v>12</v>
       </c>
       <c r="E234" t="s">
         <v>30</v>
       </c>
-      <c r="F234" s="1" t="n">
+      <c r="F234" s="1">
         <v>12751</v>
       </c>
-      <c r="G234" t="n">
+      <c r="G234">
         <v>1934</v>
       </c>
       <c r="H234" t="s">
         <v>31</v>
       </c>
-      <c r="I234" t="n">
+      <c r="I234">
         <v>158.91</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>286</v>
       </c>
       <c r="B235" t="s">
         <v>36</v>
       </c>
-      <c r="C235"/>
       <c r="D235" t="s">
         <v>12</v>
       </c>
       <c r="E235" t="s">
         <v>30</v>
       </c>
-      <c r="F235" s="1" t="n">
+      <c r="F235" s="1">
         <v>19534</v>
       </c>
-      <c r="G235" t="n">
+      <c r="G235">
         <v>1953</v>
       </c>
       <c r="H235" t="s">
         <v>32</v>
       </c>
-      <c r="I235" t="n">
+      <c r="I235">
         <v>478.53</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>286</v>
       </c>
       <c r="B236" t="s">
         <v>36</v>
       </c>
-      <c r="C236"/>
       <c r="D236" t="s">
         <v>12</v>
       </c>
       <c r="E236" t="s">
         <v>30</v>
       </c>
-      <c r="F236" s="1" t="n">
+      <c r="F236" s="1">
         <v>28804</v>
       </c>
-      <c r="G236" t="n">
+      <c r="G236">
         <v>1978</v>
       </c>
       <c r="H236" t="s">
         <v>204</v>
       </c>
-      <c r="I236" t="n">
+      <c r="I236">
         <v>760</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>287</v>
       </c>
@@ -7848,128 +7757,124 @@
       <c r="E237" t="s">
         <v>13</v>
       </c>
-      <c r="F237" s="1" t="n">
+      <c r="F237" s="1">
         <v>28825</v>
       </c>
-      <c r="G237" t="n">
+      <c r="G237">
         <v>1978</v>
       </c>
       <c r="H237" t="s">
         <v>25</v>
       </c>
-      <c r="I237" t="n">
+      <c r="I237">
         <v>10950000</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>289</v>
       </c>
       <c r="B238" t="s">
         <v>19</v>
       </c>
-      <c r="C238"/>
       <c r="D238" t="s">
         <v>12</v>
       </c>
       <c r="E238" t="s">
         <v>13</v>
       </c>
-      <c r="F238" s="1" t="n">
+      <c r="F238" s="1">
         <v>9110</v>
       </c>
-      <c r="G238" t="n">
+      <c r="G238">
         <v>1924</v>
       </c>
       <c r="H238" t="s">
         <v>38</v>
       </c>
-      <c r="I238" t="n">
+      <c r="I238">
         <v>2234.1</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>289</v>
       </c>
       <c r="B239" t="s">
         <v>19</v>
       </c>
-      <c r="C239"/>
       <c r="D239" t="s">
         <v>12</v>
       </c>
       <c r="E239" t="s">
         <v>30</v>
       </c>
-      <c r="F239" s="1" t="n">
+      <c r="F239" s="1">
         <v>13705</v>
       </c>
-      <c r="G239" t="n">
+      <c r="G239">
         <v>1937</v>
       </c>
       <c r="H239" t="s">
         <v>31</v>
       </c>
-      <c r="I239" t="n">
-        <v>33631.2</v>
-      </c>
-    </row>
-    <row r="240">
+      <c r="I239">
+        <v>33631.199999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>289</v>
       </c>
       <c r="B240" t="s">
         <v>19</v>
       </c>
-      <c r="C240"/>
       <c r="D240" t="s">
         <v>12</v>
       </c>
       <c r="E240" t="s">
         <v>33</v>
       </c>
-      <c r="F240" s="1" t="n">
+      <c r="F240" s="1">
         <v>14998</v>
       </c>
-      <c r="G240" t="n">
+      <c r="G240">
         <v>1941</v>
       </c>
       <c r="H240" t="s">
         <v>31</v>
       </c>
-      <c r="I240" t="n">
+      <c r="I240">
         <v>52.27</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>290</v>
       </c>
       <c r="B241" t="s">
         <v>63</v>
       </c>
-      <c r="C241"/>
       <c r="D241" t="s">
         <v>12</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
       </c>
-      <c r="F241" s="1" t="n">
+      <c r="F241" s="1">
         <v>7293</v>
       </c>
-      <c r="G241" t="n">
+      <c r="G241">
         <v>1919</v>
       </c>
       <c r="H241" t="s">
         <v>14</v>
       </c>
-      <c r="I241" t="n">
+      <c r="I241">
         <v>9.6</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>291</v>
       </c>
@@ -7985,20 +7890,20 @@
       <c r="E242" t="s">
         <v>13</v>
       </c>
-      <c r="F242" s="1" t="n">
+      <c r="F242" s="1">
         <v>28825</v>
       </c>
-      <c r="G242" t="n">
+      <c r="G242">
         <v>1978</v>
       </c>
       <c r="H242" t="s">
         <v>25</v>
       </c>
-      <c r="I242" t="n">
+      <c r="I242">
         <v>10600000</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>293</v>
       </c>
@@ -8014,20 +7919,20 @@
       <c r="E243" t="s">
         <v>13</v>
       </c>
-      <c r="F243" s="1" t="n">
+      <c r="F243" s="1">
         <v>28825</v>
       </c>
-      <c r="G243" t="n">
+      <c r="G243">
         <v>1978</v>
       </c>
       <c r="H243" t="s">
         <v>25</v>
       </c>
-      <c r="I243" t="n">
+      <c r="I243">
         <v>1720000</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>295</v>
       </c>
@@ -8043,20 +7948,20 @@
       <c r="E244" t="s">
         <v>13</v>
       </c>
-      <c r="F244" s="1" t="n">
+      <c r="F244" s="1">
         <v>3500</v>
       </c>
-      <c r="G244" t="n">
+      <c r="G244">
         <v>1909</v>
       </c>
       <c r="H244" t="s">
         <v>59</v>
       </c>
-      <c r="I244" t="n">
+      <c r="I244">
         <v>16000</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>295</v>
       </c>
@@ -8072,20 +7977,20 @@
       <c r="E245" t="s">
         <v>297</v>
       </c>
-      <c r="F245" s="1" t="n">
+      <c r="F245" s="1">
         <v>6652</v>
       </c>
-      <c r="G245" t="n">
+      <c r="G245">
         <v>1918</v>
       </c>
       <c r="H245" t="s">
         <v>14</v>
       </c>
-      <c r="I245" t="n">
+      <c r="I245">
         <v>76800</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>295</v>
       </c>
@@ -8101,21 +8006,21 @@
       <c r="E246" t="s">
         <v>13</v>
       </c>
-      <c r="F246" s="1" t="n">
+      <c r="F246" s="1">
         <v>13537</v>
       </c>
-      <c r="G246" t="n">
+      <c r="G246">
         <v>1937</v>
       </c>
       <c r="H246" t="s">
         <v>31</v>
       </c>
-      <c r="I246" t="n">
+      <c r="I246">
         <v>49150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>